--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-516483.4984481042</v>
+        <v>-517281.0414289085</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1508212.476403593</v>
+        <v>1508212.476403594</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590120.9651681866</v>
+        <v>590120.9651681862</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.765157819097949</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="F8" t="n">
         <v>7.293863480540836</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.765157819097949</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1215,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.424434953660366</v>
+      </c>
+      <c r="G9" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="I9" t="n">
         <v>7.293863480540836</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>6.424434953660366</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>7.293863480540836</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,25 +1297,25 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>6.424434953660366</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
         <v>7.293863480540836</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
         <v>7.293863480540836</v>
-      </c>
-      <c r="H10" t="n">
-        <v>7.293863480540836</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.9593084670259</v>
       </c>
       <c r="C11" t="n">
-        <v>245.2279941545735</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>234.8476312302292</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>58.40492167646789</v>
       </c>
       <c r="F11" t="n">
         <v>285.5367619561717</v>
       </c>
       <c r="G11" t="n">
-        <v>292.5726318999396</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>64.41159914209703</v>
+        <v>211.0098181035022</v>
       </c>
       <c r="I11" t="n">
-        <v>63.22591095322379</v>
+        <v>63.22591095322385</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.1436839658071</v>
+        <v>72.14368396580716</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>98.90968818169267</v>
       </c>
       <c r="U11" t="n">
         <v>129.6786594938135</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>206.7761199981503</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>43.61502408597568</v>
+        <v>43.61502408597575</v>
       </c>
       <c r="C12" t="n">
-        <v>49.26848240303184</v>
+        <v>49.26848240303191</v>
       </c>
       <c r="D12" t="n">
-        <v>24.35532205027641</v>
+        <v>24.35532205027648</v>
       </c>
       <c r="E12" t="n">
-        <v>34.27633218280468</v>
+        <v>34.27633218280475</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>21.74913055918022</v>
       </c>
       <c r="G12" t="n">
         <v>135.7422933303385</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>48.59498786837393</v>
       </c>
       <c r="S12" t="n">
-        <v>41.98660464280756</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T12" t="n">
         <v>197.2502397685634</v>
       </c>
       <c r="U12" t="n">
-        <v>214.3005551830242</v>
+        <v>102.8815941694964</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>249.98934675</v>
+        <v>128.2322452256309</v>
       </c>
       <c r="X12" t="n">
-        <v>204.4616296084783</v>
+        <v>82.70452808410919</v>
       </c>
       <c r="Y12" t="n">
-        <v>81.91404989421687</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.32658996631466</v>
+        <v>58.32658996631473</v>
       </c>
       <c r="C13" t="n">
-        <v>45.57945140683319</v>
+        <v>45.57945140683326</v>
       </c>
       <c r="D13" t="n">
-        <v>27.24846499015021</v>
+        <v>27.24846499015028</v>
       </c>
       <c r="E13" t="n">
-        <v>25.21752264883003</v>
+        <v>25.2175226488301</v>
       </c>
       <c r="F13" t="n">
-        <v>13.43990499839586</v>
+        <v>13.43990499839333</v>
       </c>
       <c r="G13" t="n">
-        <v>45.89697613459666</v>
+        <v>45.89697613459673</v>
       </c>
       <c r="H13" t="n">
-        <v>37.7830611829375</v>
+        <v>37.78306118293757</v>
       </c>
       <c r="I13" t="n">
-        <v>24.91897904632027</v>
+        <v>24.91897904632033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.04460299023528</v>
+        <v>41.04460299023534</v>
       </c>
       <c r="S13" t="n">
-        <v>96.49598628451072</v>
+        <v>96.49598628451079</v>
       </c>
       <c r="T13" t="n">
         <v>105.5690890358944</v>
@@ -1585,16 +1585,16 @@
         <v>164.2823227973601</v>
       </c>
       <c r="V13" t="n">
-        <v>131.17924954257</v>
+        <v>131.1792495425701</v>
       </c>
       <c r="W13" t="n">
         <v>164.3354753630464</v>
       </c>
       <c r="X13" t="n">
-        <v>104.3832584079401</v>
+        <v>104.3832584079402</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.99157234339907</v>
+        <v>96.99157234339914</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>245.2279941545735</v>
+        <v>245.2279941545734</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>234.8476312302292</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.3609342309182</v>
       </c>
       <c r="F14" t="n">
-        <v>285.5367619561717</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>156.2827267979296</v>
+        <v>292.5726318999394</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>63.22591095322377</v>
+        <v>63.2259109532237</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.1436839658071</v>
+        <v>72.143683965807</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>5.318543505045606</v>
       </c>
       <c r="U14" t="n">
-        <v>129.6786594938135</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.7761199981502</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>228.7730154761854</v>
+        <v>228.7730154761853</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>249.1044976068002</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.9299702268667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,19 +1686,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C15" t="n">
-        <v>171.025583927401</v>
+        <v>49.26848240303175</v>
       </c>
       <c r="D15" t="n">
-        <v>24.35532205027641</v>
+        <v>24.35532205027633</v>
       </c>
       <c r="E15" t="n">
-        <v>34.27633218280468</v>
+        <v>34.27633218280459</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>21.74913055918006</v>
       </c>
       <c r="G15" t="n">
-        <v>13.98519180596936</v>
+        <v>125.4041528194975</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>153.4055656563356</v>
+        <v>41.98660464280748</v>
       </c>
       <c r="T15" t="n">
-        <v>197.2502397685634</v>
+        <v>75.49313824419417</v>
       </c>
       <c r="U15" t="n">
-        <v>102.8815941694963</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V15" t="n">
-        <v>110.151629515286</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
-        <v>82.70452808410911</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
         <v>203.671151418586</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.32658996631466</v>
+        <v>58.32658996631457</v>
       </c>
       <c r="C16" t="n">
-        <v>45.57945140683319</v>
+        <v>45.5794514068331</v>
       </c>
       <c r="D16" t="n">
-        <v>16.28645010310956</v>
+        <v>27.24846499015013</v>
       </c>
       <c r="E16" t="n">
-        <v>25.21752264883003</v>
+        <v>25.21752264882994</v>
       </c>
       <c r="F16" t="n">
-        <v>24.40191988543535</v>
+        <v>24.40191988543526</v>
       </c>
       <c r="G16" t="n">
-        <v>45.89697613459666</v>
+        <v>45.89697613459658</v>
       </c>
       <c r="H16" t="n">
-        <v>37.7830611829375</v>
+        <v>37.78306118293742</v>
       </c>
       <c r="I16" t="n">
-        <v>24.91897904632029</v>
+        <v>24.91897904632019</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.04460299023526</v>
+        <v>41.04460299023518</v>
       </c>
       <c r="S16" t="n">
-        <v>96.49598628451071</v>
+        <v>96.49598628451064</v>
       </c>
       <c r="T16" t="n">
-        <v>105.5690890358944</v>
+        <v>105.5690890358943</v>
       </c>
       <c r="U16" t="n">
-        <v>164.2823227973601</v>
+        <v>164.28232279736</v>
       </c>
       <c r="V16" t="n">
-        <v>131.17924954257</v>
+        <v>131.1792495425699</v>
       </c>
       <c r="W16" t="n">
-        <v>164.3354753630464</v>
+        <v>153.3734604760086</v>
       </c>
       <c r="X16" t="n">
-        <v>104.3832584079401</v>
+        <v>104.38325840794</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.99157234339907</v>
+        <v>96.99157234339899</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>28.07845117535896</v>
+        <v>28.07845117535897</v>
       </c>
       <c r="V17" t="n">
         <v>105.1759116796957</v>
@@ -1920,19 +1920,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.001681641070151</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.83162475308175</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S18" t="n">
-        <v>163.7437061671767</v>
+        <v>45.46553983705459</v>
       </c>
       <c r="T18" t="n">
-        <v>197.2502397685634</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6386956938654</v>
+        <v>1.281385851041773</v>
       </c>
       <c r="V18" t="n">
         <v>231.9087310396551</v>
@@ -1986,7 +1986,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y18" t="n">
         <v>203.671151418586</v>
@@ -2005,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.86220792523159</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>29.57904122411549</v>
       </c>
       <c r="W19" t="n">
-        <v>62.73526704459186</v>
+        <v>258.6030414843428</v>
       </c>
       <c r="X19" t="n">
         <v>2.783050089485585</v>
@@ -2096,7 +2096,7 @@
         <v>190.972423581485</v>
       </c>
       <c r="H20" t="n">
-        <v>109.4096097850476</v>
+        <v>109.4096097850473</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2160,7 +2160,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -2172,10 +2172,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>26.56985960270924</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,19 +2211,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>196.3566903605001</v>
       </c>
       <c r="U21" t="n">
-        <v>224.6386956938654</v>
+        <v>1.281385851041773</v>
       </c>
       <c r="V21" t="n">
-        <v>231.9087310396551</v>
+        <v>8.551421196831456</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y21" t="n">
         <v>203.671151418586</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>195.8677744397509</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>3.968880717439836</v>
@@ -2305,7 +2305,7 @@
         <v>2.783050089485585</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>195.8677744397509</v>
       </c>
     </row>
     <row r="23">
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>33.88717148583437</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.2502397685634</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6386956938654</v>
+        <v>136.527619010062</v>
       </c>
       <c r="V24" t="n">
         <v>231.9087310396551</v>
@@ -2518,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>60.03984243501851</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>135.8279320047324</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>2.783050089485585</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>195.867774439751</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>190.6000800130437</v>
       </c>
       <c r="I26" t="n">
-        <v>42.81617286276538</v>
+        <v>42.81617286276537</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.73394587534868</v>
+        <v>51.7339458753487</v>
       </c>
       <c r="T26" t="n">
-        <v>78.4999500912342</v>
+        <v>78.49995009123421</v>
       </c>
       <c r="U26" t="n">
         <v>109.2689214033551</v>
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>23.20528599551727</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
       </c>
       <c r="D27" t="n">
-        <v>146.1124235746456</v>
+        <v>3.945583959818009</v>
       </c>
       <c r="E27" t="n">
         <v>156.0334337071738</v>
@@ -2646,10 +2646,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>21.57686655234916</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T27" t="n">
-        <v>141.4289116707891</v>
+        <v>182.2708476536654</v>
       </c>
       <c r="U27" t="n">
         <v>224.6386956938654</v>
@@ -2697,7 +2697,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>204.4616296084783</v>
+        <v>62.29478999365071</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -2792,7 +2792,7 @@
         <v>241.5495703765675</v>
       </c>
       <c r="C29" t="n">
-        <v>224.818256064115</v>
+        <v>224.8182560641151</v>
       </c>
       <c r="D29" t="n">
         <v>214.4378931397708</v>
@@ -2801,7 +2801,7 @@
         <v>240.9511961404599</v>
       </c>
       <c r="F29" t="n">
-        <v>265.1270238657132</v>
+        <v>265.1270238657133</v>
       </c>
       <c r="G29" t="n">
         <v>272.1628938094811</v>
@@ -2810,7 +2810,7 @@
         <v>190.6000800130437</v>
       </c>
       <c r="I29" t="n">
-        <v>42.81617286276535</v>
+        <v>42.81617286276538</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>51.73394587534865</v>
+        <v>51.73394587534868</v>
       </c>
       <c r="T29" t="n">
-        <v>78.49995009123417</v>
+        <v>78.4999500912342</v>
       </c>
       <c r="U29" t="n">
         <v>109.2689214033551</v>
@@ -2858,7 +2858,7 @@
         <v>228.6947595163418</v>
       </c>
       <c r="Y29" t="n">
-        <v>244.5202321364082</v>
+        <v>244.5202321364083</v>
       </c>
     </row>
     <row r="30">
@@ -2880,16 +2880,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
-        <v>143.5062320835493</v>
+        <v>1.339392468721741</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2916,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S30" t="n">
-        <v>107.9223780694027</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T30" t="n">
         <v>197.2502397685634</v>
       </c>
       <c r="U30" t="n">
-        <v>82.47185607903786</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>89.74189142482757</v>
       </c>
       <c r="W30" t="n">
-        <v>249.98934675</v>
+        <v>107.8225071351725</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>143.1465709585982</v>
       </c>
       <c r="Y30" t="n">
         <v>203.671151418586</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.91685187585622</v>
+        <v>37.91685187585625</v>
       </c>
       <c r="C31" t="n">
-        <v>25.16971331637475</v>
+        <v>25.16971331637478</v>
       </c>
       <c r="D31" t="n">
-        <v>6.838726899691778</v>
+        <v>6.838726899691807</v>
       </c>
       <c r="E31" t="n">
-        <v>4.807784558371594</v>
+        <v>4.807784558371623</v>
       </c>
       <c r="F31" t="n">
-        <v>3.992181794976915</v>
+        <v>3.992181794976943</v>
       </c>
       <c r="G31" t="n">
-        <v>25.48723804413823</v>
+        <v>25.48723804413826</v>
       </c>
       <c r="H31" t="n">
-        <v>17.37332309247907</v>
+        <v>17.37332309247909</v>
       </c>
       <c r="I31" t="n">
-        <v>4.50924095586184</v>
+        <v>4.509240955861869</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.63486489977684</v>
+        <v>20.63486489977686</v>
       </c>
       <c r="S31" t="n">
-        <v>76.08624819405229</v>
+        <v>76.08624819405232</v>
       </c>
       <c r="T31" t="n">
-        <v>85.15935094543592</v>
+        <v>85.15935094543595</v>
       </c>
       <c r="U31" t="n">
         <v>143.8725847069016</v>
@@ -3013,10 +3013,10 @@
         <v>143.925737272588</v>
       </c>
       <c r="X31" t="n">
-        <v>83.97352031748167</v>
+        <v>83.9735203174817</v>
       </c>
       <c r="Y31" t="n">
-        <v>76.58183425294064</v>
+        <v>76.58183425294067</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>222.9311877044296</v>
       </c>
       <c r="D32" t="n">
-        <v>212.5508247800853</v>
+        <v>212.5508247800854</v>
       </c>
       <c r="E32" t="n">
         <v>239.0641277807744</v>
       </c>
       <c r="F32" t="n">
-        <v>263.2399555060278</v>
+        <v>263.2399555060279</v>
       </c>
       <c r="G32" t="n">
         <v>270.2758254497957</v>
@@ -3047,7 +3047,7 @@
         <v>188.7130116533582</v>
       </c>
       <c r="I32" t="n">
-        <v>40.92910450307988</v>
+        <v>40.92910450307991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>49.84687751566321</v>
+        <v>49.84687751566324</v>
       </c>
       <c r="T32" t="n">
-        <v>76.61288173154873</v>
+        <v>76.61288173154875</v>
       </c>
       <c r="U32" t="n">
         <v>107.3818530436696</v>
@@ -3089,10 +3089,10 @@
         <v>184.4793135480063</v>
       </c>
       <c r="W32" t="n">
-        <v>206.4762090260415</v>
+        <v>206.4762090260416</v>
       </c>
       <c r="X32" t="n">
-        <v>226.8076911566563</v>
+        <v>226.8076911566564</v>
       </c>
       <c r="Y32" t="n">
         <v>242.6331637767228</v>
@@ -3108,7 +3108,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C33" t="n">
-        <v>171.025583927401</v>
+        <v>26.97167595288798</v>
       </c>
       <c r="D33" t="n">
         <v>146.1124235746456</v>
@@ -3117,7 +3117,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>89.57197234546081</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>12.86615653808359</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T33" t="n">
-        <v>53.19633179405037</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U33" t="n">
-        <v>80.58478771935241</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V33" t="n">
         <v>231.9087310396551</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.02978351617077</v>
+        <v>36.0297835161708</v>
       </c>
       <c r="C34" t="n">
-        <v>23.2826449566893</v>
+        <v>23.28264495668932</v>
       </c>
       <c r="D34" t="n">
-        <v>4.951658540006321</v>
+        <v>4.951658540006349</v>
       </c>
       <c r="E34" t="n">
-        <v>2.920716198686137</v>
+        <v>2.920716198686165</v>
       </c>
       <c r="F34" t="n">
-        <v>2.105113435291457</v>
+        <v>2.105113435291486</v>
       </c>
       <c r="G34" t="n">
-        <v>23.60016968445277</v>
+        <v>23.6001696844528</v>
       </c>
       <c r="H34" t="n">
-        <v>15.48625473279361</v>
+        <v>15.48625473279364</v>
       </c>
       <c r="I34" t="n">
-        <v>2.622172596176383</v>
+        <v>2.622172596176411</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.74779654009138</v>
+        <v>18.74779654009141</v>
       </c>
       <c r="S34" t="n">
-        <v>74.19917983436683</v>
+        <v>74.19917983436686</v>
       </c>
       <c r="T34" t="n">
-        <v>83.27228258575046</v>
+        <v>83.27228258575049</v>
       </c>
       <c r="U34" t="n">
-        <v>141.9855163472161</v>
+        <v>141.9855163472162</v>
       </c>
       <c r="V34" t="n">
         <v>108.8824430924261</v>
@@ -3250,10 +3250,10 @@
         <v>142.0386689129025</v>
       </c>
       <c r="X34" t="n">
-        <v>82.08645195779621</v>
+        <v>82.08645195779624</v>
       </c>
       <c r="Y34" t="n">
-        <v>74.69476589325518</v>
+        <v>74.69476589325521</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>146.3183059728809</v>
       </c>
       <c r="D35" t="n">
-        <v>135.9379430485366</v>
+        <v>135.9379430485367</v>
       </c>
       <c r="E35" t="n">
         <v>162.4512460492257</v>
@@ -3278,7 +3278,7 @@
         <v>186.6270737744791</v>
       </c>
       <c r="G35" t="n">
-        <v>193.6629437182469</v>
+        <v>193.662943718247</v>
       </c>
       <c r="H35" t="n">
         <v>112.1001299218095</v>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>30.76897131212087</v>
+        <v>30.7689713121209</v>
       </c>
       <c r="V35" t="n">
         <v>107.8664318164576</v>
@@ -3332,7 +3332,7 @@
         <v>150.1948094251076</v>
       </c>
       <c r="Y35" t="n">
-        <v>166.020282045174</v>
+        <v>166.0202820451741</v>
       </c>
     </row>
     <row r="36">
@@ -3345,7 +3345,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C36" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>146.1124235746456</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>8.808520956226403</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>3.971905987803678</v>
+        <v>183.8060108714324</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3475,19 +3475,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>21.7380216789408</v>
+        <v>6.659400854201769</v>
       </c>
       <c r="U37" t="n">
-        <v>65.37263461566742</v>
+        <v>65.37263461566745</v>
       </c>
       <c r="V37" t="n">
-        <v>32.26956136087739</v>
+        <v>67.71011094361958</v>
       </c>
       <c r="W37" t="n">
-        <v>65.42578718135377</v>
+        <v>65.4257871813538</v>
       </c>
       <c r="X37" t="n">
-        <v>5.473570226247489</v>
+        <v>5.473570226247517</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>146.3183059728809</v>
       </c>
       <c r="D38" t="n">
-        <v>135.9379430485366</v>
+        <v>135.9379430485367</v>
       </c>
       <c r="E38" t="n">
         <v>162.4512460492257</v>
@@ -3515,10 +3515,10 @@
         <v>186.6270737744791</v>
       </c>
       <c r="G38" t="n">
-        <v>193.6629437182469</v>
+        <v>193.662943718247</v>
       </c>
       <c r="H38" t="n">
-        <v>112.1001299218095</v>
+        <v>112.1001299218096</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>30.76897131212087</v>
+        <v>30.7689713121209</v>
       </c>
       <c r="V38" t="n">
         <v>107.8664318164576</v>
@@ -3569,7 +3569,7 @@
         <v>150.1948094251076</v>
       </c>
       <c r="Y38" t="n">
-        <v>166.020282045174</v>
+        <v>166.0202820451741</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>8.808520956227753</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>217.2420565525093</v>
+        <v>3.971905987803706</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3645,7 +3645,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
         <v>203.671151418586</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>6.65940085420174</v>
+        <v>6.65940085420177</v>
       </c>
       <c r="U40" t="n">
-        <v>65.37263461566742</v>
+        <v>247.7878083716085</v>
       </c>
       <c r="V40" t="n">
-        <v>214.6847351168189</v>
+        <v>32.26956136087742</v>
       </c>
       <c r="W40" t="n">
-        <v>65.42578718135377</v>
+        <v>65.4257871813538</v>
       </c>
       <c r="X40" t="n">
-        <v>5.473570226247489</v>
+        <v>5.473570226247517</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>189.8156245012194</v>
+        <v>189.8156245012186</v>
       </c>
       <c r="C41" t="n">
-        <v>173.084310188767</v>
+        <v>173.0843101887662</v>
       </c>
       <c r="D41" t="n">
-        <v>162.7039472644228</v>
+        <v>162.703947264422</v>
       </c>
       <c r="E41" t="n">
-        <v>189.2172502651119</v>
+        <v>189.217250265111</v>
       </c>
       <c r="F41" t="n">
-        <v>213.3930779903652</v>
+        <v>213.3930779903644</v>
       </c>
       <c r="G41" t="n">
-        <v>220.4289479341331</v>
+        <v>220.4289479341323</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8661341376956</v>
+        <v>138.8661341376949</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>6.412648190234904e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.76600421588616</v>
+        <v>26.76600421588534</v>
       </c>
       <c r="U41" t="n">
-        <v>57.53497552800704</v>
+        <v>57.53497552800622</v>
       </c>
       <c r="V41" t="n">
-        <v>134.6324360323437</v>
+        <v>134.6324360323429</v>
       </c>
       <c r="W41" t="n">
-        <v>156.629331510379</v>
+        <v>156.6293315103782</v>
       </c>
       <c r="X41" t="n">
-        <v>176.9608136409938</v>
+        <v>176.960813640993</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7862862610602</v>
+        <v>192.7862862610594</v>
       </c>
     </row>
     <row r="42">
@@ -3816,28 +3816,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>165.3721256103448</v>
+        <v>159.5787793258483</v>
       </c>
       <c r="C42" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I42" t="n">
-        <v>76.83162475308175</v>
+        <v>76.83162475308177</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,16 +3864,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>77.2534916983407</v>
+        <v>77.25349169834072</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T42" t="n">
-        <v>3.349454278387817</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U42" t="n">
-        <v>203.303911020741</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.35230231870427</v>
+        <v>24.35230231870345</v>
       </c>
       <c r="T43" t="n">
-        <v>33.42540507008791</v>
+        <v>33.42540507008709</v>
       </c>
       <c r="U43" t="n">
-        <v>92.13863883155359</v>
+        <v>92.13863883155277</v>
       </c>
       <c r="V43" t="n">
-        <v>59.03556557676356</v>
+        <v>59.03556557676274</v>
       </c>
       <c r="W43" t="n">
-        <v>92.19179139723994</v>
+        <v>92.19179139723911</v>
       </c>
       <c r="X43" t="n">
-        <v>32.23957444213366</v>
+        <v>32.23957444213283</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.84788837759262</v>
+        <v>24.8478883775918</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.8156245012195</v>
+        <v>189.8156245012188</v>
       </c>
       <c r="C44" t="n">
-        <v>173.0843101887671</v>
+        <v>173.0843101887664</v>
       </c>
       <c r="D44" t="n">
-        <v>162.7039472644228</v>
+        <v>162.7039472644221</v>
       </c>
       <c r="E44" t="n">
-        <v>189.2172502651119</v>
+        <v>189.2172502651112</v>
       </c>
       <c r="F44" t="n">
-        <v>213.3930779903653</v>
+        <v>213.3930779903646</v>
       </c>
       <c r="G44" t="n">
-        <v>220.4289479341331</v>
+        <v>220.4289479341324</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8661341376957</v>
+        <v>138.866134137695</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>6.696865284538944e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.76600421588619</v>
+        <v>26.76600421588548</v>
       </c>
       <c r="U44" t="n">
-        <v>57.53497552800707</v>
+        <v>57.53497552800636</v>
       </c>
       <c r="V44" t="n">
-        <v>134.6324360323438</v>
+        <v>134.6324360323431</v>
       </c>
       <c r="W44" t="n">
-        <v>156.629331510379</v>
+        <v>156.6293315103783</v>
       </c>
       <c r="X44" t="n">
-        <v>176.9608136409938</v>
+        <v>176.9608136409931</v>
       </c>
       <c r="Y44" t="n">
-        <v>192.7862862610602</v>
+        <v>192.7862862610595</v>
       </c>
     </row>
     <row r="45">
@@ -4056,13 +4056,13 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>143.5062320835493</v>
@@ -4071,10 +4071,10 @@
         <v>135.7422933303385</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.06296164635283</v>
+        <v>76.83162475308177</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4101,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>77.2534916983407</v>
+        <v>77.25349169834072</v>
       </c>
       <c r="S45" t="n">
         <v>163.7437061671767</v>
       </c>
       <c r="T45" t="n">
-        <v>3.349454278387846</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U45" t="n">
-        <v>30.73791020368988</v>
+        <v>224.6386956938654</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
@@ -4119,7 +4119,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>10.5608441183027</v>
+        <v>16.79907758222792</v>
       </c>
       <c r="Y45" t="n">
         <v>203.671151418586</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.3523023187043</v>
+        <v>24.3523023187036</v>
       </c>
       <c r="T46" t="n">
-        <v>33.42540507008794</v>
+        <v>33.42540507008723</v>
       </c>
       <c r="U46" t="n">
-        <v>92.13863883155362</v>
+        <v>92.13863883155291</v>
       </c>
       <c r="V46" t="n">
-        <v>59.03556557676359</v>
+        <v>59.03556557676288</v>
       </c>
       <c r="W46" t="n">
-        <v>92.19179139723997</v>
+        <v>92.19179139723926</v>
       </c>
       <c r="X46" t="n">
-        <v>32.23957444213369</v>
+        <v>32.23957444213298</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.84788837759265</v>
+        <v>24.84788837759194</v>
       </c>
     </row>
   </sheetData>
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.9845233164676</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="C8" t="n">
-        <v>15.9845233164676</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="D8" t="n">
-        <v>15.9845233164676</v>
+        <v>23.35206218570077</v>
       </c>
       <c r="E8" t="n">
         <v>15.9845233164676</v>
@@ -4811,43 +4811,43 @@
         <v>0.5835090784432668</v>
       </c>
       <c r="M8" t="n">
-        <v>3.493732152831573</v>
+        <v>7.804433924178694</v>
       </c>
       <c r="N8" t="n">
-        <v>10.714656998567</v>
+        <v>15.02535876991412</v>
       </c>
       <c r="O8" t="n">
-        <v>17.93558184430243</v>
+        <v>22.24628361564955</v>
       </c>
       <c r="P8" t="n">
-        <v>25.15650669003785</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Q8" t="n">
         <v>29.17545392216334</v>
       </c>
       <c r="R8" t="n">
-        <v>23.35206218570077</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="S8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="T8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="V8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="W8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="X8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.9845233164676</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="C9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.17545392216334</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22.68612568614277</v>
+      </c>
+      <c r="G9" t="n">
         <v>15.3185868169096</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15.3185868169096</v>
-      </c>
-      <c r="D9" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="F9" t="n">
-        <v>7.951047947676434</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.951047947676434</v>
       </c>
       <c r="H9" t="n">
         <v>7.951047947676434</v>
@@ -4908,25 +4908,25 @@
         <v>29.17545392216334</v>
       </c>
       <c r="S9" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="T9" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="U9" t="n">
-        <v>22.68612568614277</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="V9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="W9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="X9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.3185868169096</v>
+        <v>29.17545392216334</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="C10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="D10" t="n">
-        <v>29.17545392216334</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="E10" t="n">
-        <v>22.68612568614277</v>
+        <v>21.80791505293017</v>
       </c>
       <c r="F10" t="n">
+        <v>21.80791505293017</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.80791505293017</v>
+      </c>
+      <c r="H10" t="n">
+        <v>21.80791505293017</v>
+      </c>
+      <c r="I10" t="n">
         <v>15.3185868169096</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
         <v>7.951047947676434</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.5835090784432668</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.5835090784432668</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5835090784432668</v>
       </c>
       <c r="K10" t="n">
         <v>0.5835090784432668</v>
       </c>
       <c r="L10" t="n">
-        <v>7.804433924178694</v>
+        <v>1.451877705260062</v>
       </c>
       <c r="M10" t="n">
-        <v>15.02535876991412</v>
+        <v>8.672802550995488</v>
       </c>
       <c r="N10" t="n">
-        <v>22.24628361564955</v>
+        <v>15.89372739673091</v>
       </c>
       <c r="O10" t="n">
         <v>23.11465224246634</v>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1231.867218728061</v>
+        <v>658.4883130241526</v>
       </c>
       <c r="C11" t="n">
-        <v>984.1621741274815</v>
+        <v>658.4883130241526</v>
       </c>
       <c r="D11" t="n">
-        <v>746.9423446019974</v>
+        <v>658.4883130241526</v>
       </c>
       <c r="E11" t="n">
-        <v>746.9423446019974</v>
+        <v>599.4934426438821</v>
       </c>
       <c r="F11" t="n">
-        <v>458.5213729290967</v>
+        <v>311.0724709709813</v>
       </c>
       <c r="G11" t="n">
-        <v>162.9934619190567</v>
+        <v>311.0724709709813</v>
       </c>
       <c r="H11" t="n">
-        <v>97.93124056340312</v>
+        <v>97.93124056340324</v>
       </c>
       <c r="I11" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J11" t="n">
-        <v>77.5298183240343</v>
+        <v>77.52981832403435</v>
       </c>
       <c r="K11" t="n">
-        <v>264.9463826846386</v>
+        <v>264.9463826846385</v>
       </c>
       <c r="L11" t="n">
-        <v>549.4222814033733</v>
+        <v>549.4222814033731</v>
       </c>
       <c r="M11" t="n">
-        <v>881.1688252235099</v>
+        <v>881.1688252235097</v>
       </c>
       <c r="N11" t="n">
         <v>1202.76619996072</v>
@@ -5069,22 +5069,22 @@
         <v>1630.461794203495</v>
       </c>
       <c r="T11" t="n">
-        <v>1630.461794203495</v>
+        <v>1530.553018262391</v>
       </c>
       <c r="U11" t="n">
-        <v>1499.473249260249</v>
+        <v>1399.564473319145</v>
       </c>
       <c r="V11" t="n">
-        <v>1499.473249260249</v>
+        <v>1190.699705644246</v>
       </c>
       <c r="W11" t="n">
-        <v>1499.473249260249</v>
+        <v>1190.699705644246</v>
       </c>
       <c r="X11" t="n">
-        <v>1499.473249260249</v>
+        <v>1190.699705644246</v>
       </c>
       <c r="Y11" t="n">
-        <v>1231.867218728061</v>
+        <v>923.0936751120576</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>425.1259386409557</v>
+        <v>488.584497373434</v>
       </c>
       <c r="C12" t="n">
-        <v>375.3597947995094</v>
+        <v>438.8183535319876</v>
       </c>
       <c r="D12" t="n">
-        <v>350.7584593951897</v>
+        <v>414.2170181276679</v>
       </c>
       <c r="E12" t="n">
-        <v>316.135901634781</v>
+        <v>379.5944603672591</v>
       </c>
       <c r="F12" t="n">
-        <v>171.1801116513978</v>
+        <v>357.6256416206124</v>
       </c>
       <c r="G12" t="n">
-        <v>34.0666840449953</v>
+        <v>220.5122140142099</v>
       </c>
       <c r="H12" t="n">
-        <v>34.0666840449953</v>
+        <v>111.674385815785</v>
       </c>
       <c r="I12" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J12" t="n">
-        <v>67.73507425119422</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="K12" t="n">
-        <v>251.8853289681628</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="L12" t="n">
-        <v>560.3476789512647</v>
+        <v>342.5290340280972</v>
       </c>
       <c r="M12" t="n">
-        <v>973.1088862271533</v>
+        <v>755.2902413039858</v>
       </c>
       <c r="N12" t="n">
-        <v>1334.978985555875</v>
+        <v>1176.865456360803</v>
       </c>
       <c r="O12" t="n">
-        <v>1334.978985555875</v>
+        <v>1510.913973254952</v>
       </c>
       <c r="P12" t="n">
-        <v>1586.655829522213</v>
+        <v>1703.334202249765</v>
       </c>
       <c r="Q12" t="n">
         <v>1703.334202249765</v>
       </c>
       <c r="R12" t="n">
-        <v>1703.334202249765</v>
+        <v>1654.248355918074</v>
       </c>
       <c r="S12" t="n">
-        <v>1660.923490489353</v>
+        <v>1488.850672920926</v>
       </c>
       <c r="T12" t="n">
-        <v>1461.680824056461</v>
+        <v>1289.608006488034</v>
       </c>
       <c r="U12" t="n">
-        <v>1245.215616800881</v>
+        <v>1185.687204296623</v>
       </c>
       <c r="V12" t="n">
-        <v>1010.964373326482</v>
+        <v>951.4359608222239</v>
       </c>
       <c r="W12" t="n">
-        <v>758.4498816598151</v>
+        <v>821.9084403922936</v>
       </c>
       <c r="X12" t="n">
-        <v>551.9229830653926</v>
+        <v>738.3685130346075</v>
       </c>
       <c r="Y12" t="n">
-        <v>469.1815185257796</v>
+        <v>532.640077258258</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>256.3741188006149</v>
+        <v>256.3741188006134</v>
       </c>
       <c r="C13" t="n">
-        <v>210.3342688947228</v>
+        <v>210.3342688947212</v>
       </c>
       <c r="D13" t="n">
-        <v>182.8105668844701</v>
+        <v>182.8105668844684</v>
       </c>
       <c r="E13" t="n">
-        <v>157.3383217846418</v>
+        <v>157.3383217846399</v>
       </c>
       <c r="F13" t="n">
-        <v>143.7626601701005</v>
+        <v>143.762660170101</v>
       </c>
       <c r="G13" t="n">
-        <v>97.40207821596275</v>
+        <v>97.40207821596289</v>
       </c>
       <c r="H13" t="n">
-        <v>59.2373699503693</v>
+        <v>59.23736995036937</v>
       </c>
       <c r="I13" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J13" t="n">
-        <v>83.13989847667909</v>
+        <v>83.13989847667902</v>
       </c>
       <c r="K13" t="n">
-        <v>216.1412697719311</v>
+        <v>216.141269771931</v>
       </c>
       <c r="L13" t="n">
-        <v>408.4312811621189</v>
+        <v>408.4312811621187</v>
       </c>
       <c r="M13" t="n">
-        <v>615.2145332229361</v>
+        <v>615.2145332229354</v>
       </c>
       <c r="N13" t="n">
-        <v>825.0883642442905</v>
+        <v>825.0883642442898</v>
       </c>
       <c r="O13" t="n">
-        <v>1012.805983896565</v>
+        <v>1012.805983896564</v>
       </c>
       <c r="P13" t="n">
-        <v>1167.605493646875</v>
+        <v>1167.605493646874</v>
       </c>
       <c r="Q13" t="n">
-        <v>1228.705580145333</v>
+        <v>1228.705580145332</v>
       </c>
       <c r="R13" t="n">
-        <v>1187.246385205701</v>
+        <v>1187.2463852057</v>
       </c>
       <c r="S13" t="n">
         <v>1089.775691989023</v>
       </c>
       <c r="T13" t="n">
-        <v>983.1402485184232</v>
+        <v>983.1402485184219</v>
       </c>
       <c r="U13" t="n">
-        <v>817.1985083190697</v>
+        <v>817.1985083190684</v>
       </c>
       <c r="V13" t="n">
-        <v>684.6942158518273</v>
+        <v>684.694215851826</v>
       </c>
       <c r="W13" t="n">
-        <v>518.6987861921845</v>
+        <v>518.6987861921831</v>
       </c>
       <c r="X13" t="n">
-        <v>413.2611514366894</v>
+        <v>413.261151436688</v>
       </c>
       <c r="Y13" t="n">
-        <v>315.2898662413368</v>
+        <v>315.2898662413353</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>791.9185970368125</v>
+        <v>1142.3849693671</v>
       </c>
       <c r="C14" t="n">
-        <v>544.2135524362327</v>
+        <v>894.6799247665214</v>
       </c>
       <c r="D14" t="n">
-        <v>544.2135524362327</v>
+        <v>657.4600952410374</v>
       </c>
       <c r="E14" t="n">
-        <v>544.2135524362327</v>
+        <v>393.4591515734432</v>
       </c>
       <c r="F14" t="n">
-        <v>255.792580763332</v>
+        <v>393.4591515734432</v>
       </c>
       <c r="G14" t="n">
-        <v>97.93124056340315</v>
+        <v>97.93124056340332</v>
       </c>
       <c r="H14" t="n">
-        <v>97.93124056340315</v>
+        <v>97.93124056340332</v>
       </c>
       <c r="I14" t="n">
         <v>34.0666840449953</v>
@@ -5291,7 +5291,7 @@
         <v>1202.76619996072</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.313130134389</v>
+        <v>1460.31313013439</v>
       </c>
       <c r="P14" t="n">
         <v>1643.184683310794</v>
@@ -5306,22 +5306,22 @@
         <v>1630.461794203495</v>
       </c>
       <c r="T14" t="n">
-        <v>1630.461794203495</v>
+        <v>1625.089528036783</v>
       </c>
       <c r="U14" t="n">
-        <v>1499.473249260249</v>
+        <v>1625.089528036783</v>
       </c>
       <c r="V14" t="n">
-        <v>1290.60848158535</v>
+        <v>1625.089528036783</v>
       </c>
       <c r="W14" t="n">
-        <v>1059.524627569001</v>
+        <v>1394.005674020434</v>
       </c>
       <c r="X14" t="n">
-        <v>1059.524627569001</v>
+        <v>1142.3849693671</v>
       </c>
       <c r="Y14" t="n">
-        <v>791.9185970368125</v>
+        <v>1142.3849693671</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5331,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>425.1259386409556</v>
+        <v>291.6964012316521</v>
       </c>
       <c r="C15" t="n">
-        <v>252.3728235627728</v>
+        <v>241.9302573902059</v>
       </c>
       <c r="D15" t="n">
-        <v>227.7714881584532</v>
+        <v>217.3289219858864</v>
       </c>
       <c r="E15" t="n">
-        <v>193.1489303980445</v>
+        <v>182.7063642254777</v>
       </c>
       <c r="F15" t="n">
-        <v>48.19314041466132</v>
+        <v>160.7375454788312</v>
       </c>
       <c r="G15" t="n">
         <v>34.0666840449953</v>
@@ -5355,16 +5355,16 @@
         <v>34.0666840449953</v>
       </c>
       <c r="J15" t="n">
-        <v>34.0666840449953</v>
+        <v>67.73507425119422</v>
       </c>
       <c r="K15" t="n">
-        <v>218.2169387619639</v>
+        <v>67.73507425119422</v>
       </c>
       <c r="L15" t="n">
-        <v>526.6792887450658</v>
+        <v>376.1974242342961</v>
       </c>
       <c r="M15" t="n">
-        <v>939.4404960209545</v>
+        <v>696.0336263324602</v>
       </c>
       <c r="N15" t="n">
         <v>1117.608841389277</v>
@@ -5382,25 +5382,25 @@
         <v>1703.334202249765</v>
       </c>
       <c r="S15" t="n">
-        <v>1548.379085425184</v>
+        <v>1660.923490489353</v>
       </c>
       <c r="T15" t="n">
-        <v>1349.136418992291</v>
+        <v>1584.667795293198</v>
       </c>
       <c r="U15" t="n">
-        <v>1245.215616800881</v>
+        <v>1357.76002186505</v>
       </c>
       <c r="V15" t="n">
-        <v>1133.951344563218</v>
+        <v>1123.508778390651</v>
       </c>
       <c r="W15" t="n">
-        <v>881.4368528965516</v>
+        <v>870.9942867239846</v>
       </c>
       <c r="X15" t="n">
-        <v>797.8969255388656</v>
+        <v>664.4673881295621</v>
       </c>
       <c r="Y15" t="n">
-        <v>592.1684897625161</v>
+        <v>458.7389523532125</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5410,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>256.3741188006144</v>
+        <v>267.4468611107555</v>
       </c>
       <c r="C16" t="n">
-        <v>210.3342688947223</v>
+        <v>221.4070112048636</v>
       </c>
       <c r="D16" t="n">
-        <v>193.8833091946116</v>
+        <v>193.8833091946109</v>
       </c>
       <c r="E16" t="n">
-        <v>168.4110640947833</v>
+        <v>168.4110640947827</v>
       </c>
       <c r="F16" t="n">
-        <v>143.7626601701012</v>
+        <v>143.7626601701005</v>
       </c>
       <c r="G16" t="n">
-        <v>97.40207821596314</v>
+        <v>97.40207821596258</v>
       </c>
       <c r="H16" t="n">
-        <v>59.23736995036933</v>
+        <v>59.23736995036923</v>
       </c>
       <c r="I16" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J16" t="n">
-        <v>83.13989847667906</v>
+        <v>83.13989847667918</v>
       </c>
       <c r="K16" t="n">
-        <v>216.1412697719311</v>
+        <v>216.1412697719313</v>
       </c>
       <c r="L16" t="n">
-        <v>408.4312811621189</v>
+        <v>408.4312811621191</v>
       </c>
       <c r="M16" t="n">
-        <v>615.2145332229361</v>
+        <v>615.2145332229364</v>
       </c>
       <c r="N16" t="n">
-        <v>825.0883642442905</v>
+        <v>825.0883642442909</v>
       </c>
       <c r="O16" t="n">
         <v>1012.805983896565</v>
       </c>
       <c r="P16" t="n">
-        <v>1167.605493646875</v>
+        <v>1167.605493646876</v>
       </c>
       <c r="Q16" t="n">
         <v>1228.705580145333</v>
@@ -5461,25 +5461,25 @@
         <v>1187.246385205701</v>
       </c>
       <c r="S16" t="n">
-        <v>1089.775691989023</v>
+        <v>1089.775691989024</v>
       </c>
       <c r="T16" t="n">
-        <v>983.1402485184229</v>
+        <v>983.1402485184237</v>
       </c>
       <c r="U16" t="n">
-        <v>817.1985083190693</v>
+        <v>817.1985083190702</v>
       </c>
       <c r="V16" t="n">
-        <v>684.6942158518269</v>
+        <v>684.6942158518279</v>
       </c>
       <c r="W16" t="n">
-        <v>518.6987861921841</v>
+        <v>529.7715285023248</v>
       </c>
       <c r="X16" t="n">
-        <v>413.2611514366889</v>
+        <v>424.3338937468299</v>
       </c>
       <c r="Y16" t="n">
-        <v>315.2898662413363</v>
+        <v>326.3626085514774</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.3237766355073</v>
+        <v>964.3237766355076</v>
       </c>
       <c r="C17" t="n">
-        <v>819.245205083872</v>
+        <v>819.2452050838722</v>
       </c>
       <c r="D17" t="n">
-        <v>684.6518486073319</v>
+        <v>684.6518486073321</v>
       </c>
       <c r="E17" t="n">
-        <v>523.2773779886816</v>
+        <v>523.2773779886818</v>
       </c>
       <c r="F17" t="n">
-        <v>337.4828793647248</v>
+        <v>337.482879364725</v>
       </c>
       <c r="G17" t="n">
         <v>144.5814414036292</v>
@@ -5513,13 +5513,13 @@
         <v>34.0666840449953</v>
       </c>
       <c r="J17" t="n">
-        <v>77.52981832403431</v>
+        <v>77.5298183240343</v>
       </c>
       <c r="K17" t="n">
-        <v>264.9463826846385</v>
+        <v>264.9463826846384</v>
       </c>
       <c r="L17" t="n">
-        <v>549.4222814033731</v>
+        <v>549.4222814033729</v>
       </c>
       <c r="M17" t="n">
         <v>881.1688252235097</v>
@@ -5568,46 +5568,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>414.2397047963134</v>
+        <v>512.0176347613796</v>
       </c>
       <c r="C18" t="n">
-        <v>414.2397047963134</v>
+        <v>339.2645196831967</v>
       </c>
       <c r="D18" t="n">
-        <v>414.2397047963134</v>
+        <v>191.6762130421406</v>
       </c>
       <c r="E18" t="n">
-        <v>256.6301757991681</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="F18" t="n">
-        <v>111.674385815785</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="G18" t="n">
-        <v>111.674385815785</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="H18" t="n">
-        <v>111.674385815785</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="I18" t="n">
         <v>34.0666840449953</v>
       </c>
       <c r="J18" t="n">
-        <v>34.0666840449953</v>
+        <v>67.73507425119422</v>
       </c>
       <c r="K18" t="n">
-        <v>34.0666840449953</v>
+        <v>251.8853289681628</v>
       </c>
       <c r="L18" t="n">
-        <v>342.5290340280972</v>
+        <v>560.3476789512647</v>
       </c>
       <c r="M18" t="n">
-        <v>755.2902413039858</v>
+        <v>973.1088862271533</v>
       </c>
       <c r="N18" t="n">
-        <v>1176.865456360803</v>
+        <v>1252.607312628064</v>
       </c>
       <c r="O18" t="n">
-        <v>1334.978985555875</v>
+        <v>1586.655829522213</v>
       </c>
       <c r="P18" t="n">
         <v>1586.655829522213</v>
@@ -5616,28 +5616,28 @@
         <v>1703.334202249765</v>
       </c>
       <c r="R18" t="n">
-        <v>1703.334202249765</v>
+        <v>1625.300372251441</v>
       </c>
       <c r="S18" t="n">
-        <v>1537.936519252617</v>
+        <v>1579.375584537245</v>
       </c>
       <c r="T18" t="n">
-        <v>1338.693852819724</v>
+        <v>1579.375584537245</v>
       </c>
       <c r="U18" t="n">
-        <v>1111.786079391577</v>
+        <v>1578.081255394778</v>
       </c>
       <c r="V18" t="n">
-        <v>877.5348359171783</v>
+        <v>1343.830011920379</v>
       </c>
       <c r="W18" t="n">
-        <v>625.0203442505116</v>
+        <v>1091.315520253712</v>
       </c>
       <c r="X18" t="n">
-        <v>625.0203442505116</v>
+        <v>884.7886216592896</v>
       </c>
       <c r="Y18" t="n">
-        <v>419.291908474162</v>
+        <v>679.06018588294</v>
       </c>
     </row>
     <row r="19">
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>184.5773572919846</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="C19" t="n">
-        <v>184.5773572919846</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="D19" t="n">
         <v>34.0666840449953</v>
@@ -5692,31 +5692,31 @@
         <v>395.295096160439</v>
       </c>
       <c r="Q19" t="n">
-        <v>347.959532599599</v>
+        <v>395.295096160439</v>
       </c>
       <c r="R19" t="n">
-        <v>347.959532599599</v>
+        <v>395.295096160439</v>
       </c>
       <c r="S19" t="n">
-        <v>347.959532599599</v>
+        <v>395.295096160439</v>
       </c>
       <c r="T19" t="n">
-        <v>343.9505621779426</v>
+        <v>391.2861257387826</v>
       </c>
       <c r="U19" t="n">
-        <v>280.635295027533</v>
+        <v>327.970858588373</v>
       </c>
       <c r="V19" t="n">
-        <v>250.7574756092345</v>
+        <v>298.0930391700745</v>
       </c>
       <c r="W19" t="n">
-        <v>187.3885189985357</v>
+        <v>36.8778457515464</v>
       </c>
       <c r="X19" t="n">
-        <v>184.5773572919846</v>
+        <v>34.0666840449953</v>
       </c>
       <c r="Y19" t="n">
-        <v>184.5773572919846</v>
+        <v>34.0666840449953</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.3237766355078</v>
+        <v>964.323776635508</v>
       </c>
       <c r="C20" t="n">
         <v>819.2452050838724</v>
@@ -5741,7 +5741,7 @@
         <v>337.4828793647252</v>
       </c>
       <c r="G20" t="n">
-        <v>144.5814414036292</v>
+        <v>144.581441403629</v>
       </c>
       <c r="H20" t="n">
         <v>34.0666840449953</v>
@@ -5753,7 +5753,7 @@
         <v>77.5298183240343</v>
       </c>
       <c r="K20" t="n">
-        <v>264.9463826846385</v>
+        <v>264.9463826846386</v>
       </c>
       <c r="L20" t="n">
         <v>549.4222814033731</v>
@@ -5792,7 +5792,7 @@
         <v>1440.276454762103</v>
       </c>
       <c r="X20" t="n">
-        <v>1291.282223157713</v>
+        <v>1291.282223157714</v>
       </c>
       <c r="Y20" t="n">
         <v>1126.302665674469</v>
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>538.8558767843182</v>
+        <v>585.2157754880243</v>
       </c>
       <c r="C21" t="n">
-        <v>366.1027617061354</v>
+        <v>585.2157754880243</v>
       </c>
       <c r="D21" t="n">
-        <v>218.5144550650792</v>
+        <v>437.6274688469681</v>
       </c>
       <c r="E21" t="n">
-        <v>60.90492606793393</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="F21" t="n">
-        <v>60.90492606793393</v>
+        <v>280.0179398498228</v>
       </c>
       <c r="G21" t="n">
-        <v>34.0666840449953</v>
+        <v>142.9045122434203</v>
       </c>
       <c r="H21" t="n">
         <v>34.0666840449953</v>
@@ -5841,13 +5841,13 @@
         <v>973.1088862271533</v>
       </c>
       <c r="N21" t="n">
-        <v>1369.285685355616</v>
+        <v>1000.930468661725</v>
       </c>
       <c r="O21" t="n">
-        <v>1703.334202249765</v>
+        <v>1334.978985555875</v>
       </c>
       <c r="P21" t="n">
-        <v>1703.334202249765</v>
+        <v>1586.655829522213</v>
       </c>
       <c r="Q21" t="n">
         <v>1703.334202249765</v>
@@ -5859,22 +5859,22 @@
         <v>1625.300372251441</v>
       </c>
       <c r="T21" t="n">
-        <v>1625.300372251441</v>
+        <v>1426.960280978209</v>
       </c>
       <c r="U21" t="n">
-        <v>1398.392598823294</v>
+        <v>1425.665951835742</v>
       </c>
       <c r="V21" t="n">
-        <v>1164.141355348895</v>
+        <v>1417.028152647023</v>
       </c>
       <c r="W21" t="n">
-        <v>911.6268636822282</v>
+        <v>1164.513660980357</v>
       </c>
       <c r="X21" t="n">
-        <v>911.6268636822282</v>
+        <v>957.9867623859343</v>
       </c>
       <c r="Y21" t="n">
-        <v>705.8984279058786</v>
+        <v>752.2583266095847</v>
       </c>
     </row>
     <row r="22">
@@ -5935,22 +5935,22 @@
         <v>395.295096160439</v>
       </c>
       <c r="S22" t="n">
-        <v>197.4488593526098</v>
+        <v>395.295096160439</v>
       </c>
       <c r="T22" t="n">
-        <v>193.4398889309534</v>
+        <v>391.2861257387826</v>
       </c>
       <c r="U22" t="n">
-        <v>130.1246217805437</v>
+        <v>327.970858588373</v>
       </c>
       <c r="V22" t="n">
-        <v>100.2468023622453</v>
+        <v>298.0930391700745</v>
       </c>
       <c r="W22" t="n">
-        <v>36.8778457515464</v>
+        <v>234.7240825593757</v>
       </c>
       <c r="X22" t="n">
-        <v>34.0666840449953</v>
+        <v>231.9129208528246</v>
       </c>
       <c r="Y22" t="n">
         <v>34.0666840449953</v>
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.3237766355073</v>
+        <v>964.3237766355082</v>
       </c>
       <c r="C23" t="n">
-        <v>819.245205083872</v>
+        <v>819.2452050838729</v>
       </c>
       <c r="D23" t="n">
-        <v>684.6518486073319</v>
+        <v>684.6518486073328</v>
       </c>
       <c r="E23" t="n">
-        <v>523.2773779886816</v>
+        <v>523.2773779886825</v>
       </c>
       <c r="F23" t="n">
-        <v>337.4828793647248</v>
+        <v>337.4828793647257</v>
       </c>
       <c r="G23" t="n">
         <v>144.5814414036292</v>
       </c>
       <c r="H23" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="I23" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="J23" t="n">
-        <v>77.52981832403435</v>
+        <v>77.52981832403432</v>
       </c>
       <c r="K23" t="n">
         <v>264.9463826846385</v>
       </c>
       <c r="L23" t="n">
-        <v>549.4222814033729</v>
+        <v>549.4222814033731</v>
       </c>
       <c r="M23" t="n">
         <v>881.1688252235097</v>
@@ -6023,16 +6023,16 @@
         <v>1674.972130355463</v>
       </c>
       <c r="V23" t="n">
-        <v>1568.733835729507</v>
+        <v>1568.733835729508</v>
       </c>
       <c r="W23" t="n">
         <v>1440.276454762103</v>
       </c>
       <c r="X23" t="n">
-        <v>1291.282223157713</v>
+        <v>1291.282223157714</v>
       </c>
       <c r="Y23" t="n">
-        <v>1126.302665674468</v>
+        <v>1126.302665674469</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>343.9332267295806</v>
+        <v>499.3638957476174</v>
       </c>
       <c r="C24" t="n">
-        <v>171.1801116513978</v>
+        <v>326.6107806694346</v>
       </c>
       <c r="D24" t="n">
-        <v>171.1801116513978</v>
+        <v>179.0224740283784</v>
       </c>
       <c r="E24" t="n">
-        <v>171.1801116513978</v>
+        <v>179.0224740283784</v>
       </c>
       <c r="F24" t="n">
-        <v>171.1801116513978</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="G24" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="H24" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="I24" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="J24" t="n">
-        <v>67.73507425119422</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="K24" t="n">
-        <v>251.8853289681628</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="L24" t="n">
-        <v>418.2708902953585</v>
+        <v>342.5290340280972</v>
       </c>
       <c r="M24" t="n">
-        <v>831.032097571247</v>
+        <v>755.2902413039858</v>
       </c>
       <c r="N24" t="n">
-        <v>1252.607312628064</v>
+        <v>1176.865456360803</v>
       </c>
       <c r="O24" t="n">
-        <v>1586.655829522213</v>
+        <v>1510.913973254952</v>
       </c>
       <c r="P24" t="n">
-        <v>1586.655829522213</v>
+        <v>1703.334202249765</v>
       </c>
       <c r="Q24" t="n">
         <v>1703.334202249765</v>
@@ -6093,25 +6093,25 @@
         <v>1703.334202249765</v>
       </c>
       <c r="S24" t="n">
-        <v>1669.104736102458</v>
+        <v>1703.334202249765</v>
       </c>
       <c r="T24" t="n">
-        <v>1469.862069669565</v>
+        <v>1703.334202249765</v>
       </c>
       <c r="U24" t="n">
-        <v>1242.954296241418</v>
+        <v>1565.427516381016</v>
       </c>
       <c r="V24" t="n">
-        <v>1008.703052767019</v>
+        <v>1331.176272906617</v>
       </c>
       <c r="W24" t="n">
-        <v>756.1885611003527</v>
+        <v>1078.66178123995</v>
       </c>
       <c r="X24" t="n">
-        <v>549.6616625059302</v>
+        <v>872.1348826455275</v>
       </c>
       <c r="Y24" t="n">
-        <v>343.9332267295806</v>
+        <v>666.4064468691779</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="C25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="D25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="E25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="F25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="G25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="H25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="I25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="J25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
       <c r="K25" t="n">
-        <v>46.52852483112184</v>
+        <v>46.52852483112186</v>
       </c>
       <c r="L25" t="n">
         <v>118.2790057121842</v>
@@ -6157,40 +6157,40 @@
         <v>204.522727263876</v>
       </c>
       <c r="N25" t="n">
-        <v>293.8570277761049</v>
+        <v>293.857027776105</v>
       </c>
       <c r="O25" t="n">
-        <v>361.0351169192536</v>
+        <v>361.0351169192537</v>
       </c>
       <c r="P25" t="n">
-        <v>395.295096160439</v>
+        <v>395.2950961604391</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.6487906705213</v>
+        <v>395.2950961604391</v>
       </c>
       <c r="R25" t="n">
-        <v>197.4488593526098</v>
+        <v>395.2950961604391</v>
       </c>
       <c r="S25" t="n">
-        <v>197.4488593526098</v>
+        <v>395.2950961604391</v>
       </c>
       <c r="T25" t="n">
-        <v>193.4398889309534</v>
+        <v>391.2861257387827</v>
       </c>
       <c r="U25" t="n">
-        <v>130.1246217805437</v>
+        <v>327.9708585883731</v>
       </c>
       <c r="V25" t="n">
-        <v>100.2468023622453</v>
+        <v>298.0930391700746</v>
       </c>
       <c r="W25" t="n">
-        <v>36.8778457515464</v>
+        <v>234.7240825593757</v>
       </c>
       <c r="X25" t="n">
-        <v>34.0666840449953</v>
+        <v>231.9129208528246</v>
       </c>
       <c r="Y25" t="n">
-        <v>34.0666840449953</v>
+        <v>34.06668404499531</v>
       </c>
     </row>
     <row r="26">
@@ -6209,34 +6209,34 @@
         <v>1079.594341836111</v>
       </c>
       <c r="E26" t="n">
-        <v>836.2092952295856</v>
+        <v>836.2092952295858</v>
       </c>
       <c r="F26" t="n">
         <v>568.4042206177539</v>
       </c>
       <c r="G26" t="n">
-        <v>293.492206668783</v>
+        <v>293.4922066687831</v>
       </c>
       <c r="H26" t="n">
         <v>100.9668733222743</v>
       </c>
       <c r="I26" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J26" t="n">
-        <v>241.9265193626539</v>
+        <v>241.9265193626543</v>
       </c>
       <c r="K26" t="n">
-        <v>570.0882549419373</v>
+        <v>570.0882549419377</v>
       </c>
       <c r="L26" t="n">
-        <v>995.3093248793514</v>
+        <v>995.3093248793516</v>
       </c>
       <c r="M26" t="n">
-        <v>1467.801039918167</v>
+        <v>1467.801039918168</v>
       </c>
       <c r="N26" t="n">
-        <v>1930.143585874056</v>
+        <v>1930.143585874057</v>
       </c>
       <c r="O26" t="n">
         <v>2328.435687266406</v>
@@ -6245,13 +6245,13 @@
         <v>2652.052411661489</v>
       </c>
       <c r="Q26" t="n">
-        <v>2852.947101819139</v>
+        <v>2852.94710181914</v>
       </c>
       <c r="R26" t="n">
         <v>2885.910693246778</v>
       </c>
       <c r="S26" t="n">
-        <v>2833.654182261577</v>
+        <v>2833.654182261578</v>
       </c>
       <c r="T26" t="n">
         <v>2754.361303381543</v>
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>680.624954564703</v>
+        <v>782.9733420717248</v>
       </c>
       <c r="C27" t="n">
-        <v>507.8718394865202</v>
+        <v>610.220226993542</v>
       </c>
       <c r="D27" t="n">
-        <v>360.283532845464</v>
+        <v>606.2347886502915</v>
       </c>
       <c r="E27" t="n">
-        <v>202.6740038483187</v>
+        <v>448.6252596531463</v>
       </c>
       <c r="F27" t="n">
-        <v>57.71821386493555</v>
+        <v>303.6694696697631</v>
       </c>
       <c r="G27" t="n">
-        <v>57.71821386493555</v>
+        <v>166.5560420633606</v>
       </c>
       <c r="H27" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="I27" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J27" t="n">
         <v>91.38660407113449</v>
@@ -6330,25 +6330,25 @@
         <v>2138.248649861742</v>
       </c>
       <c r="S27" t="n">
-        <v>2116.453835162399</v>
+        <v>1972.850966864594</v>
       </c>
       <c r="T27" t="n">
-        <v>1973.596348626249</v>
+        <v>1788.738999537659</v>
       </c>
       <c r="U27" t="n">
-        <v>1746.688575198101</v>
+        <v>1561.831226109512</v>
       </c>
       <c r="V27" t="n">
-        <v>1512.437331723702</v>
+        <v>1327.579982635113</v>
       </c>
       <c r="W27" t="n">
-        <v>1259.922840057036</v>
+        <v>1075.065490968446</v>
       </c>
       <c r="X27" t="n">
-        <v>1053.395941462613</v>
+        <v>1012.141460671829</v>
       </c>
       <c r="Y27" t="n">
-        <v>847.6675056862634</v>
+        <v>806.4130248954796</v>
       </c>
     </row>
     <row r="28">
@@ -6364,22 +6364,22 @@
         <v>121.3631586583897</v>
       </c>
       <c r="D28" t="n">
-        <v>114.455353709206</v>
+        <v>114.4553537092061</v>
       </c>
       <c r="E28" t="n">
         <v>109.5990056704468</v>
       </c>
       <c r="F28" t="n">
-        <v>105.5664988068337</v>
+        <v>105.5664988068338</v>
       </c>
       <c r="G28" t="n">
-        <v>79.8218139137648</v>
+        <v>79.82181391376481</v>
       </c>
       <c r="H28" t="n">
-        <v>62.27300270924047</v>
+        <v>62.27300270924048</v>
       </c>
       <c r="I28" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J28" t="n">
         <v>126.9970690061732</v>
@@ -6391,13 +6391,13 @@
         <v>293.7633392046843</v>
       </c>
       <c r="M28" t="n">
-        <v>520.7522319750553</v>
+        <v>380.0070607563761</v>
       </c>
       <c r="N28" t="n">
-        <v>610.0865324872843</v>
+        <v>469.3413612686051</v>
       </c>
       <c r="O28" t="n">
-        <v>818.0097928491123</v>
+        <v>677.264621630433</v>
       </c>
       <c r="P28" t="n">
         <v>852.2697720902977</v>
@@ -6421,7 +6421,7 @@
         <v>492.6436203101487</v>
       </c>
       <c r="W28" t="n">
-        <v>347.2640877115749</v>
+        <v>347.264087711575</v>
       </c>
       <c r="X28" t="n">
         <v>262.442350017149</v>
@@ -6446,7 +6446,7 @@
         <v>1079.594341836111</v>
       </c>
       <c r="E29" t="n">
-        <v>836.2092952295855</v>
+        <v>836.2092952295856</v>
       </c>
       <c r="F29" t="n">
         <v>568.4042206177539</v>
@@ -6458,19 +6458,19 @@
         <v>100.9668733222743</v>
       </c>
       <c r="I29" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J29" t="n">
-        <v>241.9265193626537</v>
+        <v>241.9265193626546</v>
       </c>
       <c r="K29" t="n">
-        <v>570.0882549419371</v>
+        <v>570.088254941938</v>
       </c>
       <c r="L29" t="n">
-        <v>995.3093248793509</v>
+        <v>995.3093248793518</v>
       </c>
       <c r="M29" t="n">
-        <v>1467.801039918167</v>
+        <v>1467.801039918168</v>
       </c>
       <c r="N29" t="n">
         <v>1930.143585874057</v>
@@ -6479,10 +6479,10 @@
         <v>2328.435687266406</v>
       </c>
       <c r="P29" t="n">
-        <v>2652.052411661489</v>
+        <v>2652.05241166149</v>
       </c>
       <c r="Q29" t="n">
-        <v>2852.947101819139</v>
+        <v>2852.94710181914</v>
       </c>
       <c r="R29" t="n">
         <v>2885.910693246778</v>
@@ -6491,7 +6491,7 @@
         <v>2833.654182261577</v>
       </c>
       <c r="T29" t="n">
-        <v>2754.361303381542</v>
+        <v>2754.361303381543</v>
       </c>
       <c r="U29" t="n">
         <v>2643.988655499366</v>
@@ -6503,7 +6503,7 @@
         <v>2245.271827930256</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.267020337991</v>
+        <v>2014.267020337992</v>
       </c>
       <c r="Y29" t="n">
         <v>1767.276886866872</v>
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>680.624954564703</v>
+        <v>751.7432156440896</v>
       </c>
       <c r="C30" t="n">
-        <v>507.8718394865202</v>
+        <v>578.9901005659067</v>
       </c>
       <c r="D30" t="n">
-        <v>360.283532845464</v>
+        <v>431.4017939248506</v>
       </c>
       <c r="E30" t="n">
-        <v>202.6740038483187</v>
+        <v>273.7922649277053</v>
       </c>
       <c r="F30" t="n">
-        <v>57.71821386493555</v>
+        <v>272.4393432421277</v>
       </c>
       <c r="G30" t="n">
-        <v>57.71821386493555</v>
+        <v>135.3259156357252</v>
       </c>
       <c r="H30" t="n">
-        <v>57.71821386493555</v>
+        <v>135.3259156357252</v>
       </c>
       <c r="I30" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J30" t="n">
         <v>91.38660407113449</v>
@@ -6564,28 +6564,28 @@
         <v>2138.248649861742</v>
       </c>
       <c r="R30" t="n">
-        <v>2138.248649861742</v>
+        <v>2060.214819863418</v>
       </c>
       <c r="S30" t="n">
-        <v>2029.236146761335</v>
+        <v>1894.817136866269</v>
       </c>
       <c r="T30" t="n">
-        <v>1829.993480328443</v>
+        <v>1695.574470433377</v>
       </c>
       <c r="U30" t="n">
-        <v>1746.688575198101</v>
+        <v>1468.66669700523</v>
       </c>
       <c r="V30" t="n">
-        <v>1512.437331723702</v>
+        <v>1378.018321828637</v>
       </c>
       <c r="W30" t="n">
-        <v>1259.922840057036</v>
+        <v>1269.106698459776</v>
       </c>
       <c r="X30" t="n">
-        <v>1053.395941462613</v>
+        <v>1124.514202542</v>
       </c>
       <c r="Y30" t="n">
-        <v>847.6675056862634</v>
+        <v>918.78576676565</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>146.7871115032125</v>
+        <v>146.7871115032127</v>
       </c>
       <c r="C31" t="n">
-        <v>121.3631586583895</v>
+        <v>121.3631586583897</v>
       </c>
       <c r="D31" t="n">
-        <v>114.4553537092059</v>
+        <v>114.4553537092061</v>
       </c>
       <c r="E31" t="n">
-        <v>109.5990056704467</v>
+        <v>109.5990056704468</v>
       </c>
       <c r="F31" t="n">
-        <v>105.5664988068337</v>
+        <v>105.5664988068338</v>
       </c>
       <c r="G31" t="n">
-        <v>79.82181391376474</v>
+        <v>79.82181391376481</v>
       </c>
       <c r="H31" t="n">
-        <v>62.27300270924044</v>
+        <v>62.27300270924048</v>
       </c>
       <c r="I31" t="n">
-        <v>57.71821386493555</v>
+        <v>57.71821386493556</v>
       </c>
       <c r="J31" t="n">
-        <v>57.71821386493555</v>
+        <v>126.9970690061732</v>
       </c>
       <c r="K31" t="n">
-        <v>70.18005465106209</v>
+        <v>222.0128583236219</v>
       </c>
       <c r="L31" t="n">
-        <v>141.9305355321245</v>
+        <v>293.7633392046843</v>
       </c>
       <c r="M31" t="n">
-        <v>368.9194283024956</v>
+        <v>520.7522319750553</v>
       </c>
       <c r="N31" t="n">
-        <v>469.3413612686046</v>
+        <v>610.0865324872843</v>
       </c>
       <c r="O31" t="n">
-        <v>677.2646216304325</v>
+        <v>818.0097928491123</v>
       </c>
       <c r="P31" t="n">
-        <v>852.2697720902972</v>
+        <v>852.2697720902977</v>
       </c>
       <c r="Q31" t="n">
-        <v>933.5754992983082</v>
+        <v>933.5754992983086</v>
       </c>
       <c r="R31" t="n">
-        <v>912.7322014197457</v>
+        <v>912.7322014197462</v>
       </c>
       <c r="S31" t="n">
-        <v>835.8774052641373</v>
+        <v>835.8774052641378</v>
       </c>
       <c r="T31" t="n">
-        <v>749.8578588546061</v>
+        <v>749.8578588546065</v>
       </c>
       <c r="U31" t="n">
-        <v>604.5320157163217</v>
+        <v>604.532015716322</v>
       </c>
       <c r="V31" t="n">
-        <v>492.6436203101484</v>
+        <v>492.6436203101487</v>
       </c>
       <c r="W31" t="n">
-        <v>347.2640877115747</v>
+        <v>347.264087711575</v>
       </c>
       <c r="X31" t="n">
-        <v>262.4423500171487</v>
+        <v>262.442350017149</v>
       </c>
       <c r="Y31" t="n">
-        <v>185.0869618828652</v>
+        <v>185.0869618828655</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>562.1023225705667</v>
       </c>
       <c r="G32" t="n">
-        <v>289.0964382778438</v>
+        <v>289.096438277844</v>
       </c>
       <c r="H32" t="n">
-        <v>98.47723458758308</v>
+        <v>98.47723458758313</v>
       </c>
       <c r="I32" t="n">
         <v>57.13470478649229</v>
@@ -6716,34 +6716,34 @@
         <v>2339.061364244494</v>
       </c>
       <c r="P32" t="n">
-        <v>2619.140562387148</v>
+        <v>2619.140562387149</v>
       </c>
       <c r="Q32" t="n">
-        <v>2821.903450220887</v>
+        <v>2821.903450220888</v>
       </c>
       <c r="R32" t="n">
-        <v>2856.735239324614</v>
+        <v>2856.735239324615</v>
       </c>
       <c r="S32" t="n">
-        <v>2806.384857995661</v>
+        <v>2806.384857995662</v>
       </c>
       <c r="T32" t="n">
-        <v>2728.998108771875</v>
+        <v>2728.998108771876</v>
       </c>
       <c r="U32" t="n">
         <v>2620.531590545947</v>
       </c>
       <c r="V32" t="n">
-        <v>2434.188849588365</v>
+        <v>2434.188849588364</v>
       </c>
       <c r="W32" t="n">
-        <v>2225.627022289333</v>
+        <v>2225.627022289332</v>
       </c>
       <c r="X32" t="n">
         <v>1996.528344353316</v>
       </c>
       <c r="Y32" t="n">
-        <v>1751.444340538445</v>
+        <v>1751.444340538444</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>693.0375632014957</v>
+        <v>480.0533972917127</v>
       </c>
       <c r="C33" t="n">
-        <v>520.2844481233128</v>
+        <v>452.8092801675834</v>
       </c>
       <c r="D33" t="n">
-        <v>372.6961414822567</v>
+        <v>305.2209735265273</v>
       </c>
       <c r="E33" t="n">
-        <v>215.0866124851114</v>
+        <v>147.611444529382</v>
       </c>
       <c r="F33" t="n">
-        <v>70.13082250172823</v>
+        <v>57.13470478649229</v>
       </c>
       <c r="G33" t="n">
-        <v>70.13082250172823</v>
+        <v>57.13470478649229</v>
       </c>
       <c r="H33" t="n">
-        <v>70.13082250172823</v>
+        <v>57.13470478649229</v>
       </c>
       <c r="I33" t="n">
         <v>57.13470478649229</v>
       </c>
       <c r="J33" t="n">
-        <v>90.80309499269121</v>
+        <v>90.80309499269123</v>
       </c>
       <c r="K33" t="n">
         <v>274.9533497096598</v>
@@ -6801,28 +6801,28 @@
         <v>2137.665140783299</v>
       </c>
       <c r="R33" t="n">
-        <v>2059.631310784975</v>
+        <v>2137.665140783299</v>
       </c>
       <c r="S33" t="n">
-        <v>1894.233627787826</v>
+        <v>1972.267457786151</v>
       </c>
       <c r="T33" t="n">
-        <v>1840.499959308988</v>
+        <v>1773.024791353258</v>
       </c>
       <c r="U33" t="n">
-        <v>1759.101183834894</v>
+        <v>1546.117017925111</v>
       </c>
       <c r="V33" t="n">
-        <v>1524.849940360495</v>
+        <v>1311.865774450712</v>
       </c>
       <c r="W33" t="n">
-        <v>1272.335448693828</v>
+        <v>1059.351282784045</v>
       </c>
       <c r="X33" t="n">
-        <v>1065.808550099406</v>
+        <v>852.8243841896227</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.0801143230561</v>
+        <v>647.0959484132732</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8606948310337</v>
+        <v>132.8606948310339</v>
       </c>
       <c r="C34" t="n">
-        <v>109.3428716424586</v>
+        <v>109.3428716424588</v>
       </c>
       <c r="D34" t="n">
-        <v>104.341196349523</v>
+        <v>104.3411963495231</v>
       </c>
       <c r="E34" t="n">
-        <v>101.3909779670117</v>
+        <v>101.3909779670118</v>
       </c>
       <c r="F34" t="n">
-        <v>99.2646007596466</v>
+        <v>99.26460075964668</v>
       </c>
       <c r="G34" t="n">
-        <v>75.42604552282562</v>
+        <v>75.42604552282567</v>
       </c>
       <c r="H34" t="n">
-        <v>59.78336397454924</v>
+        <v>59.78336397454927</v>
       </c>
       <c r="I34" t="n">
         <v>57.13470478649229</v>
       </c>
       <c r="J34" t="n">
-        <v>113.4253969201507</v>
+        <v>128.2817576038185</v>
       </c>
       <c r="K34" t="n">
-        <v>268.5006066010451</v>
+        <v>140.743598389945</v>
       </c>
       <c r="L34" t="n">
-        <v>340.2510874821074</v>
+        <v>212.4940792710074</v>
       </c>
       <c r="M34" t="n">
-        <v>569.1081779285671</v>
+        <v>441.3511697174671</v>
       </c>
       <c r="N34" t="n">
-        <v>658.4424784407961</v>
+        <v>530.6854702296961</v>
       </c>
       <c r="O34" t="n">
-        <v>868.2339364787126</v>
+        <v>642.4466426998455</v>
       </c>
       <c r="P34" t="n">
-        <v>902.493915719898</v>
+        <v>819.3199908357988</v>
       </c>
       <c r="Q34" t="n">
-        <v>902.493915719898</v>
+        <v>902.4939157198983</v>
       </c>
       <c r="R34" t="n">
-        <v>883.5567474975835</v>
+        <v>883.5567474975837</v>
       </c>
       <c r="S34" t="n">
-        <v>808.608080998223</v>
+        <v>808.6080809982233</v>
       </c>
       <c r="T34" t="n">
-        <v>724.4946642449397</v>
+        <v>724.4946642449399</v>
       </c>
       <c r="U34" t="n">
-        <v>581.0749507629032</v>
+        <v>581.0749507629034</v>
       </c>
       <c r="V34" t="n">
-        <v>471.0926850129778</v>
+        <v>471.0926850129781</v>
       </c>
       <c r="W34" t="n">
-        <v>327.619282070652</v>
+        <v>327.6192820706523</v>
       </c>
       <c r="X34" t="n">
-        <v>244.703674032474</v>
+        <v>244.7036740324743</v>
       </c>
       <c r="Y34" t="n">
-        <v>169.2544155544385</v>
+        <v>169.2544155544387</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>981.2955177579386</v>
+        <v>981.2955177579397</v>
       </c>
       <c r="C35" t="n">
-        <v>833.4992490984632</v>
+        <v>833.4992490984641</v>
       </c>
       <c r="D35" t="n">
-        <v>696.1881955140827</v>
+        <v>696.1881955140836</v>
       </c>
       <c r="E35" t="n">
-        <v>532.0960277875921</v>
+        <v>532.096027787593</v>
       </c>
       <c r="F35" t="n">
-        <v>343.583832055795</v>
+        <v>343.5838320557959</v>
       </c>
       <c r="G35" t="n">
         <v>147.964696986859</v>
       </c>
       <c r="H35" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I35" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J35" t="n">
-        <v>78.19537679942377</v>
+        <v>78.1953767994238</v>
       </c>
       <c r="K35" t="n">
-        <v>265.6119411600279</v>
+        <v>265.611941160028</v>
       </c>
       <c r="L35" t="n">
         <v>550.0878398787625</v>
@@ -6959,28 +6959,28 @@
         <v>1703.999760725154</v>
       </c>
       <c r="R35" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="S35" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="T35" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="U35" t="n">
-        <v>1705.532357017095</v>
+        <v>1705.532357017097</v>
       </c>
       <c r="V35" t="n">
-        <v>1596.5763652833</v>
+        <v>1596.576365283301</v>
       </c>
       <c r="W35" t="n">
-        <v>1465.401287208055</v>
+        <v>1465.401287208056</v>
       </c>
       <c r="X35" t="n">
-        <v>1313.689358495825</v>
+        <v>1313.689358495826</v>
       </c>
       <c r="Y35" t="n">
-        <v>1145.99210390474</v>
+        <v>1145.992103904741</v>
       </c>
     </row>
     <row r="36">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>657.6389832201521</v>
+        <v>484.8858681419694</v>
       </c>
       <c r="C36" t="n">
-        <v>484.8858681419693</v>
+        <v>484.8858681419694</v>
       </c>
       <c r="D36" t="n">
         <v>337.2975615009132</v>
@@ -7002,64 +7002,64 @@
         <v>179.6880325037679</v>
       </c>
       <c r="F36" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="G36" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="H36" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I36" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J36" t="n">
-        <v>34.73224252038475</v>
+        <v>68.40063272658371</v>
       </c>
       <c r="K36" t="n">
-        <v>34.73224252038475</v>
+        <v>252.5508874435523</v>
       </c>
       <c r="L36" t="n">
-        <v>343.1945925034867</v>
+        <v>561.0132374266542</v>
       </c>
       <c r="M36" t="n">
-        <v>755.9557997793752</v>
+        <v>604.3968912414377</v>
       </c>
       <c r="N36" t="n">
-        <v>1185.767300969137</v>
+        <v>1034.208392431199</v>
       </c>
       <c r="O36" t="n">
-        <v>1519.815817863286</v>
+        <v>1368.256909325349</v>
       </c>
       <c r="P36" t="n">
-        <v>1736.612126019238</v>
+        <v>1619.933753291687</v>
       </c>
       <c r="Q36" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="R36" t="n">
-        <v>1736.612126019238</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="S36" t="n">
-        <v>1727.714630103857</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="T36" t="n">
-        <v>1727.714630103857</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="U36" t="n">
-        <v>1723.702603853551</v>
+        <v>1550.949488775368</v>
       </c>
       <c r="V36" t="n">
-        <v>1489.451360379152</v>
+        <v>1316.698245300969</v>
       </c>
       <c r="W36" t="n">
-        <v>1236.936868712485</v>
+        <v>1064.183753634302</v>
       </c>
       <c r="X36" t="n">
-        <v>1030.409970118062</v>
+        <v>857.6568550398794</v>
       </c>
       <c r="Y36" t="n">
-        <v>824.6815343417126</v>
+        <v>651.9284192635298</v>
       </c>
     </row>
     <row r="37">
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>203.7590636630134</v>
+        <v>183.1914588569496</v>
       </c>
       <c r="C37" t="n">
-        <v>34.73224252038475</v>
+        <v>183.1914588569496</v>
       </c>
       <c r="D37" t="n">
-        <v>34.73224252038475</v>
+        <v>183.1914588569496</v>
       </c>
       <c r="E37" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="F37" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="G37" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="H37" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I37" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J37" t="n">
-        <v>34.73224252038475</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="K37" t="n">
-        <v>47.1940833065113</v>
+        <v>47.19408330651132</v>
       </c>
       <c r="L37" t="n">
         <v>118.9445641875737</v>
       </c>
       <c r="M37" t="n">
-        <v>205.1882857392654</v>
+        <v>205.1882857392655</v>
       </c>
       <c r="N37" t="n">
         <v>294.5225862514944</v>
       </c>
       <c r="O37" t="n">
-        <v>361.700675394643</v>
+        <v>361.7006753946431</v>
       </c>
       <c r="P37" t="n">
         <v>395.9606546358285</v>
@@ -7123,22 +7123,22 @@
         <v>395.9606546358285</v>
       </c>
       <c r="T37" t="n">
-        <v>374.0030569803327</v>
+        <v>389.2339871063318</v>
       </c>
       <c r="U37" t="n">
-        <v>307.9700927220828</v>
+        <v>323.2010228480818</v>
       </c>
       <c r="V37" t="n">
-        <v>275.374576195944</v>
+        <v>254.8069713898802</v>
       </c>
       <c r="W37" t="n">
-        <v>209.2879224774048</v>
+        <v>188.720317671341</v>
       </c>
       <c r="X37" t="n">
-        <v>203.7590636630134</v>
+        <v>183.1914588569496</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.7590636630134</v>
+        <v>183.1914588569496</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7148,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>981.2955177579395</v>
+        <v>981.2955177579397</v>
       </c>
       <c r="C38" t="n">
-        <v>833.4992490984639</v>
+        <v>833.499249098464</v>
       </c>
       <c r="D38" t="n">
-        <v>696.1881955140834</v>
+        <v>696.1881955140835</v>
       </c>
       <c r="E38" t="n">
-        <v>532.0960277875928</v>
+        <v>532.0960277875929</v>
       </c>
       <c r="F38" t="n">
-        <v>343.5838320557957</v>
+        <v>343.5838320557958</v>
       </c>
       <c r="G38" t="n">
-        <v>147.964696986859</v>
+        <v>147.9646969868591</v>
       </c>
       <c r="H38" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I38" t="n">
-        <v>34.73224252038477</v>
+        <v>67.34460781447012</v>
       </c>
       <c r="J38" t="n">
-        <v>78.19537679942378</v>
+        <v>110.8077420935091</v>
       </c>
       <c r="K38" t="n">
-        <v>265.6119411600279</v>
+        <v>298.2243064541132</v>
       </c>
       <c r="L38" t="n">
-        <v>550.0878398787625</v>
+        <v>582.7002051728476</v>
       </c>
       <c r="M38" t="n">
-        <v>881.834383698899</v>
+        <v>914.4467489929842</v>
       </c>
       <c r="N38" t="n">
-        <v>1203.431758436109</v>
+        <v>1236.044123730194</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.978688609779</v>
+        <v>1493.591053903864</v>
       </c>
       <c r="P38" t="n">
-        <v>1643.850241786183</v>
+        <v>1676.462607080268</v>
       </c>
       <c r="Q38" t="n">
-        <v>1703.999760725154</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="R38" t="n">
-        <v>1710.113781845512</v>
+        <v>1736.612126019239</v>
       </c>
       <c r="S38" t="n">
         <v>1736.612126019239</v>
@@ -7205,13 +7205,13 @@
         <v>1736.612126019239</v>
       </c>
       <c r="U38" t="n">
-        <v>1705.532357017096</v>
+        <v>1705.532357017097</v>
       </c>
       <c r="V38" t="n">
         <v>1596.576365283301</v>
       </c>
       <c r="W38" t="n">
-        <v>1465.401287208055</v>
+        <v>1465.401287208056</v>
       </c>
       <c r="X38" t="n">
         <v>1313.689358495826</v>
@@ -7239,28 +7239,28 @@
         <v>179.6880325037679</v>
       </c>
       <c r="F39" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="G39" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="H39" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I39" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J39" t="n">
-        <v>68.40063272658369</v>
+        <v>68.40063272658368</v>
       </c>
       <c r="K39" t="n">
-        <v>68.40063272658369</v>
+        <v>68.40063272658368</v>
       </c>
       <c r="L39" t="n">
-        <v>376.8629827096856</v>
+        <v>376.8629827096855</v>
       </c>
       <c r="M39" t="n">
-        <v>789.6241899855742</v>
+        <v>789.624189985574</v>
       </c>
       <c r="N39" t="n">
         <v>1219.435691175336</v>
@@ -7275,22 +7275,22 @@
         <v>1736.612126019239</v>
       </c>
       <c r="R39" t="n">
-        <v>1736.612126019239</v>
+        <v>1727.714630103857</v>
       </c>
       <c r="S39" t="n">
-        <v>1736.612126019239</v>
+        <v>1727.714630103857</v>
       </c>
       <c r="T39" t="n">
-        <v>1736.612126019239</v>
+        <v>1727.714630103857</v>
       </c>
       <c r="U39" t="n">
-        <v>1517.175705259128</v>
+        <v>1723.702603853551</v>
       </c>
       <c r="V39" t="n">
-        <v>1282.924461784729</v>
+        <v>1489.451360379152</v>
       </c>
       <c r="W39" t="n">
-        <v>1030.409970118062</v>
+        <v>1236.936868712485</v>
       </c>
       <c r="X39" t="n">
         <v>1030.409970118062</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="C40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="D40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="E40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="F40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="G40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="H40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="I40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="J40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="K40" t="n">
-        <v>47.19408330651132</v>
+        <v>47.1940833065113</v>
       </c>
       <c r="L40" t="n">
-        <v>118.9445641875737</v>
+        <v>118.9445641875736</v>
       </c>
       <c r="M40" t="n">
-        <v>205.1882857392655</v>
+        <v>205.1882857392654</v>
       </c>
       <c r="N40" t="n">
-        <v>294.5225862514944</v>
+        <v>294.5225862514943</v>
       </c>
       <c r="O40" t="n">
-        <v>361.7006753946431</v>
+        <v>361.7006753946429</v>
       </c>
       <c r="P40" t="n">
-        <v>395.9606546358285</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="Q40" t="n">
-        <v>395.9606546358285</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="R40" t="n">
-        <v>395.9606546358285</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="S40" t="n">
-        <v>395.9606546358285</v>
+        <v>395.9606546358283</v>
       </c>
       <c r="T40" t="n">
-        <v>389.2339871063318</v>
+        <v>389.2339871063315</v>
       </c>
       <c r="U40" t="n">
-        <v>323.2010228480819</v>
+        <v>138.9432715794542</v>
       </c>
       <c r="V40" t="n">
         <v>106.3477550533154</v>
       </c>
       <c r="W40" t="n">
-        <v>40.26110133477618</v>
+        <v>40.26110133477621</v>
       </c>
       <c r="X40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.73224252038477</v>
+        <v>34.73224252038478</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1150.686639058229</v>
+        <v>1150.686639058224</v>
       </c>
       <c r="C41" t="n">
-        <v>975.8540025039185</v>
+        <v>975.8540025039142</v>
       </c>
       <c r="D41" t="n">
-        <v>811.5065810247036</v>
+        <v>811.5065810247002</v>
       </c>
       <c r="E41" t="n">
-        <v>620.3780454033785</v>
+        <v>620.3780454033758</v>
       </c>
       <c r="F41" t="n">
-        <v>404.8294817767467</v>
+        <v>404.8294817767451</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1739788129761</v>
+        <v>182.1739788129752</v>
       </c>
       <c r="H41" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="I41" t="n">
-        <v>50.73375173412424</v>
+        <v>50.73375173412481</v>
       </c>
       <c r="J41" t="n">
-        <v>94.19688601316325</v>
+        <v>94.19688601316378</v>
       </c>
       <c r="K41" t="n">
-        <v>281.6134503737674</v>
+        <v>281.6134503737678</v>
       </c>
       <c r="L41" t="n">
-        <v>566.0893490925019</v>
+        <v>566.0893490925023</v>
       </c>
       <c r="M41" t="n">
-        <v>897.8358929126387</v>
+        <v>897.8358929126389</v>
       </c>
       <c r="N41" t="n">
         <v>1219.433267649849</v>
       </c>
       <c r="O41" t="n">
-        <v>1668.941975458793</v>
+        <v>1476.980197823518</v>
       </c>
       <c r="P41" t="n">
-        <v>1950.928105800166</v>
+        <v>1758.96632816488</v>
       </c>
       <c r="Q41" t="n">
-        <v>2011.077624739137</v>
+        <v>2011.077624739126</v>
       </c>
       <c r="R41" t="n">
-        <v>2095.25782258337</v>
+        <v>2095.257822583359</v>
       </c>
       <c r="S41" t="n">
-        <v>2095.257822583369</v>
+        <v>2095.257822583359</v>
       </c>
       <c r="T41" t="n">
-        <v>2068.221454688534</v>
+        <v>2068.221454688525</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.105317791558</v>
+        <v>2010.105317791549</v>
       </c>
       <c r="V41" t="n">
-        <v>1874.112958162928</v>
+        <v>1874.11295816292</v>
       </c>
       <c r="W41" t="n">
-        <v>1715.901512192848</v>
+        <v>1715.901512192841</v>
       </c>
       <c r="X41" t="n">
-        <v>1537.153215585784</v>
+        <v>1537.153215585777</v>
       </c>
       <c r="Y41" t="n">
-        <v>1342.419593099864</v>
+        <v>1342.419593099859</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>742.4195989222244</v>
+        <v>365.4641140272844</v>
       </c>
       <c r="C42" t="n">
-        <v>569.6664838440415</v>
+        <v>365.4641140272844</v>
       </c>
       <c r="D42" t="n">
-        <v>422.0781772029854</v>
+        <v>365.4641140272844</v>
       </c>
       <c r="E42" t="n">
-        <v>264.4686482058402</v>
+        <v>365.4641140272844</v>
       </c>
       <c r="F42" t="n">
-        <v>119.5128582224571</v>
+        <v>365.4641140272844</v>
       </c>
       <c r="G42" t="n">
-        <v>119.5128582224571</v>
+        <v>228.3506864208819</v>
       </c>
       <c r="H42" t="n">
-        <v>119.5128582224571</v>
+        <v>119.5128582224569</v>
       </c>
       <c r="I42" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="J42" t="n">
-        <v>75.57354665786633</v>
+        <v>75.57354665786607</v>
       </c>
       <c r="K42" t="n">
-        <v>259.7238013748349</v>
+        <v>259.7238013748346</v>
       </c>
       <c r="L42" t="n">
-        <v>568.1861513579368</v>
+        <v>568.1861513579365</v>
       </c>
       <c r="M42" t="n">
-        <v>980.9473586338254</v>
+        <v>980.947358633825</v>
       </c>
       <c r="N42" t="n">
-        <v>1420.031858860434</v>
+        <v>1392.854088995319</v>
       </c>
       <c r="O42" t="n">
-        <v>1754.080375754583</v>
+        <v>1726.902605889469</v>
       </c>
       <c r="P42" t="n">
-        <v>1978.579449855818</v>
+        <v>1978.579449855807</v>
       </c>
       <c r="Q42" t="n">
-        <v>2095.25782258337</v>
+        <v>2095.257822583359</v>
       </c>
       <c r="R42" t="n">
-        <v>2017.223992585046</v>
+        <v>2017.223992585035</v>
       </c>
       <c r="S42" t="n">
-        <v>2017.223992585046</v>
+        <v>1851.826309587887</v>
       </c>
       <c r="T42" t="n">
-        <v>2013.840705435159</v>
+        <v>1652.583643154995</v>
       </c>
       <c r="U42" t="n">
-        <v>1808.483219555623</v>
+        <v>1425.675869726848</v>
       </c>
       <c r="V42" t="n">
-        <v>1574.231976081224</v>
+        <v>1191.424626252449</v>
       </c>
       <c r="W42" t="n">
-        <v>1321.717484414557</v>
+        <v>938.910134585782</v>
       </c>
       <c r="X42" t="n">
-        <v>1115.190585820134</v>
+        <v>732.3832359913595</v>
       </c>
       <c r="Y42" t="n">
-        <v>909.4621500437848</v>
+        <v>526.6548002150099</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="C43" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="D43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="E43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="F43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="G43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="H43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="I43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="J43" t="n">
-        <v>42.52640697670411</v>
+        <v>41.90515645166718</v>
       </c>
       <c r="K43" t="n">
-        <v>54.98824776283065</v>
+        <v>54.3669972377937</v>
       </c>
       <c r="L43" t="n">
-        <v>126.738728643893</v>
+        <v>126.117478118856</v>
       </c>
       <c r="M43" t="n">
-        <v>212.9824501955848</v>
+        <v>212.3611996705478</v>
       </c>
       <c r="N43" t="n">
-        <v>302.3167507078138</v>
+        <v>301.6955001827767</v>
       </c>
       <c r="O43" t="n">
-        <v>369.4948398509624</v>
+        <v>368.8735893259253</v>
       </c>
       <c r="P43" t="n">
-        <v>403.7548190921478</v>
+        <v>403.1335685671107</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.7548190921478</v>
+        <v>403.1335685671107</v>
       </c>
       <c r="R43" t="n">
-        <v>403.7548190921478</v>
+        <v>403.7548190921417</v>
       </c>
       <c r="S43" t="n">
-        <v>379.1565339217395</v>
+        <v>379.1565339217342</v>
       </c>
       <c r="T43" t="n">
-        <v>345.3934984974082</v>
+        <v>345.3934984974038</v>
       </c>
       <c r="U43" t="n">
-        <v>252.3241663443238</v>
+        <v>252.3241663443202</v>
       </c>
       <c r="V43" t="n">
-        <v>192.6922819233505</v>
+        <v>192.6922819233478</v>
       </c>
       <c r="W43" t="n">
-        <v>99.56926030997678</v>
+        <v>99.56926030997489</v>
       </c>
       <c r="X43" t="n">
-        <v>67.00403360075086</v>
+        <v>67.00403360074981</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166718</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1150.686639058229</v>
+        <v>1150.686639058225</v>
       </c>
       <c r="C44" t="n">
-        <v>975.8540025039192</v>
+        <v>975.8540025039151</v>
       </c>
       <c r="D44" t="n">
-        <v>811.5065810247042</v>
+        <v>811.5065810247008</v>
       </c>
       <c r="E44" t="n">
-        <v>620.378045403379</v>
+        <v>620.3780454033759</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8294817767473</v>
+        <v>404.8294817767451</v>
       </c>
       <c r="G44" t="n">
-        <v>182.1739788129762</v>
+        <v>182.1739788129753</v>
       </c>
       <c r="H44" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166719</v>
       </c>
       <c r="I44" t="n">
-        <v>50.73375173412421</v>
+        <v>50.73375173412467</v>
       </c>
       <c r="J44" t="n">
-        <v>94.19688601316322</v>
+        <v>94.19688601316361</v>
       </c>
       <c r="K44" t="n">
-        <v>380.7280275387374</v>
+        <v>281.6134503737676</v>
       </c>
       <c r="L44" t="n">
-        <v>665.2039262574719</v>
+        <v>566.0893490925021</v>
       </c>
       <c r="M44" t="n">
-        <v>996.9504700776085</v>
+        <v>897.8358929126387</v>
       </c>
       <c r="N44" t="n">
-        <v>1318.547844814819</v>
+        <v>1219.433267649849</v>
       </c>
       <c r="O44" t="n">
-        <v>1576.094774988489</v>
+        <v>1576.094774988477</v>
       </c>
       <c r="P44" t="n">
-        <v>1758.966328164893</v>
+        <v>1758.96632816488</v>
       </c>
       <c r="Q44" t="n">
-        <v>2011.077624739138</v>
+        <v>2011.077624739126</v>
       </c>
       <c r="R44" t="n">
-        <v>2095.25782258337</v>
+        <v>2095.257822583359</v>
       </c>
       <c r="S44" t="n">
-        <v>2095.25782258337</v>
+        <v>2095.257822583359</v>
       </c>
       <c r="T44" t="n">
-        <v>2068.221454688535</v>
+        <v>2068.221454688526</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.105317791559</v>
+        <v>2010.10531779155</v>
       </c>
       <c r="V44" t="n">
-        <v>1874.112958162929</v>
+        <v>1874.112958162921</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.901512192849</v>
+        <v>1715.901512192842</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.153215585784</v>
+        <v>1537.153215585779</v>
       </c>
       <c r="Y44" t="n">
-        <v>1342.419593099865</v>
+        <v>1342.41959309986</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>947.1903869424772</v>
+        <v>549.1703824532988</v>
       </c>
       <c r="C45" t="n">
-        <v>774.4372718642944</v>
+        <v>549.1703824532988</v>
       </c>
       <c r="D45" t="n">
-        <v>626.8489652232383</v>
+        <v>401.5820758122426</v>
       </c>
       <c r="E45" t="n">
-        <v>469.2394362260931</v>
+        <v>401.5820758122426</v>
       </c>
       <c r="F45" t="n">
-        <v>324.2836462427099</v>
+        <v>256.6262858288594</v>
       </c>
       <c r="G45" t="n">
-        <v>187.1702186363074</v>
+        <v>119.5128582224569</v>
       </c>
       <c r="H45" t="n">
-        <v>78.33239043788238</v>
+        <v>119.5128582224569</v>
       </c>
       <c r="I45" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166719</v>
       </c>
       <c r="J45" t="n">
-        <v>75.57354665786633</v>
+        <v>75.57354665786607</v>
       </c>
       <c r="K45" t="n">
-        <v>259.7238013748349</v>
+        <v>259.7238013748346</v>
       </c>
       <c r="L45" t="n">
-        <v>568.1861513579368</v>
+        <v>541.008381492823</v>
       </c>
       <c r="M45" t="n">
-        <v>980.9473586338254</v>
+        <v>953.7695887687114</v>
       </c>
       <c r="N45" t="n">
-        <v>1420.031858860434</v>
+        <v>1392.85408899532</v>
       </c>
       <c r="O45" t="n">
-        <v>1754.080375754583</v>
+        <v>1726.902605889469</v>
       </c>
       <c r="P45" t="n">
-        <v>2005.757219720922</v>
+        <v>1978.579449855808</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.25782258337</v>
+        <v>2095.257822583359</v>
       </c>
       <c r="R45" t="n">
-        <v>2017.223992585046</v>
+        <v>2017.223992585036</v>
       </c>
       <c r="S45" t="n">
-        <v>1851.826309587898</v>
+        <v>1851.826309587887</v>
       </c>
       <c r="T45" t="n">
-        <v>1848.443022438011</v>
+        <v>1652.583643154995</v>
       </c>
       <c r="U45" t="n">
-        <v>1817.39462829287</v>
+        <v>1425.675869726848</v>
       </c>
       <c r="V45" t="n">
-        <v>1583.143384818471</v>
+        <v>1191.424626252449</v>
       </c>
       <c r="W45" t="n">
-        <v>1330.628893151804</v>
+        <v>938.9101345857824</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.961373840387</v>
+        <v>921.9413693512088</v>
       </c>
       <c r="Y45" t="n">
-        <v>1114.232938064038</v>
+        <v>716.2129335748592</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166719</v>
       </c>
       <c r="C46" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166719</v>
       </c>
       <c r="D46" t="n">
-        <v>41.9051564516674</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="E46" t="n">
-        <v>41.9051564516674</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="F46" t="n">
-        <v>42.52640697670422</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="G46" t="n">
-        <v>42.52640697670422</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="H46" t="n">
-        <v>42.52640697670422</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="I46" t="n">
-        <v>42.52640697670422</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="J46" t="n">
-        <v>42.52640697670422</v>
+        <v>42.52640697669938</v>
       </c>
       <c r="K46" t="n">
-        <v>54.98824776283077</v>
+        <v>54.98824776282588</v>
       </c>
       <c r="L46" t="n">
-        <v>126.7387286438931</v>
+        <v>126.7387286438882</v>
       </c>
       <c r="M46" t="n">
-        <v>212.9824501955849</v>
+        <v>212.9824501955799</v>
       </c>
       <c r="N46" t="n">
-        <v>302.3167507078139</v>
+        <v>302.3167507078088</v>
       </c>
       <c r="O46" t="n">
-        <v>369.4948398509625</v>
+        <v>369.4948398509574</v>
       </c>
       <c r="P46" t="n">
-        <v>403.754819092148</v>
+        <v>403.7548190921428</v>
       </c>
       <c r="Q46" t="n">
-        <v>403.754819092148</v>
+        <v>403.7548190921428</v>
       </c>
       <c r="R46" t="n">
-        <v>403.754819092148</v>
+        <v>403.7548190921428</v>
       </c>
       <c r="S46" t="n">
-        <v>379.1565339217396</v>
+        <v>379.1565339217351</v>
       </c>
       <c r="T46" t="n">
-        <v>345.3934984974084</v>
+        <v>345.3934984974046</v>
       </c>
       <c r="U46" t="n">
-        <v>252.3241663443239</v>
+        <v>252.3241663443208</v>
       </c>
       <c r="V46" t="n">
-        <v>192.6922819233505</v>
+        <v>192.6922819233482</v>
       </c>
       <c r="W46" t="n">
-        <v>99.56926030997684</v>
+        <v>99.56926030997519</v>
       </c>
       <c r="X46" t="n">
-        <v>67.00403360075089</v>
+        <v>67.00403360074996</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.9051564516674</v>
+        <v>41.90515645166719</v>
       </c>
     </row>
   </sheetData>
@@ -8459,7 +8459,7 @@
         <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>227.5271966636498</v>
+        <v>231.8814408771318</v>
       </c>
       <c r="N8" t="n">
         <v>230.971600487217</v>
@@ -8468,10 +8468,10 @@
         <v>231.6396196166854</v>
       </c>
       <c r="P8" t="n">
-        <v>232.7460343419286</v>
+        <v>232.4513327871593</v>
       </c>
       <c r="Q8" t="n">
-        <v>220.8075902863009</v>
+        <v>216.7480476275882</v>
       </c>
       <c r="R8" t="n">
         <v>68.34507666790174</v>
@@ -8614,7 +8614,7 @@
         <v>111.0135169984386</v>
       </c>
       <c r="L10" t="n">
-        <v>138.8064228547481</v>
+        <v>132.389699401295</v>
       </c>
       <c r="M10" t="n">
         <v>142.7465028294557</v>
@@ -8623,7 +8623,7 @@
         <v>131.7872693341432</v>
       </c>
       <c r="O10" t="n">
-        <v>135.8722650176344</v>
+        <v>142.2889884710875</v>
       </c>
       <c r="P10" t="n">
         <v>140.4068258466027</v>
@@ -8766,10 +8766,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>131.1346767540252</v>
+        <v>97.12620179826868</v>
       </c>
       <c r="K12" t="n">
-        <v>275.0438464930818</v>
+        <v>89.0334881931135</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
@@ -8778,16 +8778,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>420.5217249759954</v>
+        <v>480.8299226811423</v>
       </c>
       <c r="O12" t="n">
-        <v>72.19406771027407</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>331.2012793855346</v>
+        <v>271.34611274763</v>
       </c>
       <c r="Q12" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6234370962409</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,19 +9003,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>97.1262017982687</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>89.0334881931135</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>484.3332662999999</v>
+        <v>390.4696247063388</v>
       </c>
       <c r="N15" t="n">
-        <v>234.9643977432694</v>
+        <v>480.8299226811423</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9240,10 +9240,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>97.12620179826868</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K18" t="n">
-        <v>89.0334881931135</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
@@ -9252,13 +9252,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>480.8299226811423</v>
+        <v>337.3180149479037</v>
       </c>
       <c r="O18" t="n">
-        <v>231.9047032608519</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>76.98224507610171</v>
       </c>
       <c r="Q18" t="n">
         <v>218.4803792452831</v>
@@ -9489,16 +9489,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.1749570969458</v>
+        <v>83.09898063847081</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>76.98224507610171</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9714,28 +9714,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>131.1346767540252</v>
+        <v>97.12620179826868</v>
       </c>
       <c r="K24" t="n">
-        <v>275.0438464930818</v>
+        <v>89.0334881931135</v>
       </c>
       <c r="L24" t="n">
-        <v>242.1620513823589</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.8299226811423</v>
+        <v>480.8299226811424</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>76.98224507610171</v>
+        <v>271.3461127476305</v>
       </c>
       <c r="Q24" t="n">
-        <v>218.4803792452831</v>
+        <v>100.6234370962409</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -10662,28 +10662,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>97.12620179826868</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K36" t="n">
-        <v>89.0334881931135</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>484.3332662999999</v>
+        <v>111.2246264402979</v>
       </c>
       <c r="N36" t="n">
-        <v>489.1494036235105</v>
+        <v>489.1494036235108</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>295.9684149305984</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>100.6234370962409</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10902,7 +10902,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K39" t="n">
-        <v>89.0334881931135</v>
+        <v>89.03348819311354</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10911,16 +10911,16 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>489.1494036235107</v>
+        <v>489.1494036235109</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>261.9599399748426</v>
+        <v>261.9599399748432</v>
       </c>
       <c r="Q39" t="n">
-        <v>100.6234370962409</v>
+        <v>100.623437096241</v>
       </c>
       <c r="R39" t="n">
         <v>47.34253660377365</v>
@@ -11148,13 +11148,13 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N42" t="n">
-        <v>498.5160693172957</v>
+        <v>471.063776524251</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>303.7489865925005</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>218.4803792452831</v>
@@ -11379,7 +11379,7 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L45" t="n">
-        <v>385.6739591155975</v>
+        <v>358.2216663225536</v>
       </c>
       <c r="M45" t="n">
         <v>484.3332662999999</v>
@@ -11394,7 +11394,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
-        <v>191.028086452249</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R45" t="n">
         <v>47.34253660377365</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.9593084670259</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>245.2279941545735</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.8476312302293</v>
       </c>
       <c r="E11" t="n">
-        <v>261.3609342309183</v>
+        <v>202.9560125544505</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>292.5726318999396</v>
       </c>
       <c r="H11" t="n">
-        <v>146.5982189614051</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>98.90968818169262</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>206.7761199981502</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>228.7730154761854</v>
+        <v>228.7730154761855</v>
       </c>
       <c r="X11" t="n">
-        <v>249.1044976068002</v>
+        <v>249.1044976068003</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>10.96201488703949</v>
+        <v>10.96201488704209</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.9593084670259</v>
+        <v>261.9593084670258</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>234.8476312302292</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.3609342309183</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>285.5367619561716</v>
       </c>
       <c r="G14" t="n">
-        <v>136.28990510201</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>211.0098181035021</v>
+        <v>211.009818103502</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>98.90968818169262</v>
+        <v>93.59114467664691</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.6786594938134</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.7761199981501</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>249.1044976068002</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.9299702268665</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>10.96201488704065</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>10.96201488703772</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>385774.2794339768</v>
+      </c>
+      <c r="C2" t="n">
         <v>385774.2794339767</v>
       </c>
-      <c r="C2" t="n">
-        <v>385774.2794339766</v>
-      </c>
       <c r="D2" t="n">
-        <v>386325.8413903753</v>
+        <v>386325.8413903754</v>
       </c>
       <c r="E2" t="n">
-        <v>331530.6059100951</v>
+        <v>331530.6059100949</v>
       </c>
       <c r="F2" t="n">
-        <v>331530.605910095</v>
+        <v>331530.6059100954</v>
       </c>
       <c r="G2" t="n">
-        <v>386611.719092095</v>
+        <v>386611.7190920952</v>
       </c>
       <c r="H2" t="n">
         <v>386611.7190920952</v>
       </c>
       <c r="I2" t="n">
-        <v>386611.7190920951</v>
+        <v>386611.7190920952</v>
       </c>
       <c r="J2" t="n">
+        <v>386611.7190920949</v>
+      </c>
+      <c r="K2" t="n">
         <v>386611.719092095</v>
-      </c>
-      <c r="K2" t="n">
-        <v>386611.7190920953</v>
       </c>
       <c r="L2" t="n">
         <v>386611.7190920952</v>
       </c>
       <c r="M2" t="n">
+        <v>386611.7190920953</v>
+      </c>
+      <c r="N2" t="n">
         <v>386611.7190920954</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>386611.7190920953</v>
-      </c>
-      <c r="O2" t="n">
-        <v>386611.7190920951</v>
       </c>
       <c r="P2" t="n">
         <v>386611.7190920952</v>
@@ -26375,10 +26375,10 @@
         <v>327298.225435756</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>81280.16665476361</v>
+        <v>81280.16665476355</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>109806.815889704</v>
       </c>
       <c r="K3" t="n">
-        <v>1.989519660128281e-11</v>
+        <v>1.10818431354486e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>82789.82134251198</v>
+        <v>82789.82134251192</v>
       </c>
       <c r="M3" t="n">
-        <v>95807.27948275863</v>
+        <v>95807.27948275868</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32617.61304535319</v>
+        <v>32617.61304535313</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>268316.749354986</v>
       </c>
       <c r="F4" t="n">
-        <v>268316.749354986</v>
+        <v>268316.7493549861</v>
       </c>
       <c r="G4" t="n">
         <v>334243.2484646651</v>
@@ -26439,7 +26439,7 @@
         <v>334243.2484646651</v>
       </c>
       <c r="J4" t="n">
-        <v>331499.4459803789</v>
+        <v>331499.4459803788</v>
       </c>
       <c r="K4" t="n">
         <v>331499.4459803789</v>
@@ -26454,7 +26454,7 @@
         <v>333951.6538716754</v>
       </c>
       <c r="O4" t="n">
-        <v>330809.2492475861</v>
+        <v>330809.2492475863</v>
       </c>
       <c r="P4" t="n">
         <v>330809.2492475862</v>
@@ -26476,10 +26476,10 @@
         <v>34071.06689961688</v>
       </c>
       <c r="E5" t="n">
-        <v>38973.79480920283</v>
+        <v>38973.79480920282</v>
       </c>
       <c r="F5" t="n">
-        <v>38973.79480920283</v>
+        <v>38973.79480920284</v>
       </c>
       <c r="G5" t="n">
         <v>47515.22272232699</v>
@@ -26491,25 +26491,25 @@
         <v>47515.22272232699</v>
       </c>
       <c r="J5" t="n">
-        <v>58664.78374388417</v>
+        <v>58664.78374388418</v>
       </c>
       <c r="K5" t="n">
-        <v>58664.78374388417</v>
+        <v>58664.78374388418</v>
       </c>
       <c r="L5" t="n">
         <v>58379.96079419769</v>
       </c>
       <c r="M5" t="n">
-        <v>47794.85782624553</v>
+        <v>47794.85782624556</v>
       </c>
       <c r="N5" t="n">
         <v>47794.85782624555</v>
       </c>
       <c r="O5" t="n">
-        <v>50996.08120559501</v>
+        <v>50996.08120559491</v>
       </c>
       <c r="P5" t="n">
-        <v>50996.08120559501</v>
+        <v>50996.08120559491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-59254.01687766678</v>
+        <v>-59258.42445481465</v>
       </c>
       <c r="C6" t="n">
-        <v>-59254.01687766689</v>
+        <v>-59258.42445481483</v>
       </c>
       <c r="D6" t="n">
-        <v>-61092.29877025474</v>
+        <v>-61093.80338973748</v>
       </c>
       <c r="E6" t="n">
-        <v>-303058.1636898497</v>
+        <v>-303348.0642855446</v>
       </c>
       <c r="F6" t="n">
-        <v>24240.0617459062</v>
+        <v>23950.16115021157</v>
       </c>
       <c r="G6" t="n">
-        <v>-76426.91874966072</v>
+        <v>-76426.91874966054</v>
       </c>
       <c r="H6" t="n">
         <v>4853.247905103024</v>
       </c>
       <c r="I6" t="n">
-        <v>4853.247905102966</v>
+        <v>4853.247905103017</v>
       </c>
       <c r="J6" t="n">
         <v>-113359.3265218721</v>
       </c>
       <c r="K6" t="n">
-        <v>-3552.510632167796</v>
+        <v>-3552.510632168211</v>
       </c>
       <c r="L6" t="n">
-        <v>-86018.44233574532</v>
+        <v>-86018.44233574526</v>
       </c>
       <c r="M6" t="n">
-        <v>-90942.07208858401</v>
+        <v>-90942.0720885842</v>
       </c>
       <c r="N6" t="n">
-        <v>4865.207394174409</v>
+        <v>4865.207394174467</v>
       </c>
       <c r="O6" t="n">
-        <v>-27811.22440643924</v>
+        <v>-27811.22440643908</v>
       </c>
       <c r="P6" t="n">
-        <v>4806.388638914024</v>
+        <v>4806.388638914068</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>121.7571015243691</v>
       </c>
       <c r="F2" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="G2" t="n">
         <v>223.3573098428237</v>
@@ -26716,16 +26716,16 @@
         <v>144.053907974513</v>
       </c>
       <c r="M2" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="N2" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="P2" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.6017049061566</v>
+        <v>130.6017049061567</v>
       </c>
       <c r="F3" t="n">
         <v>130.6017049061567</v>
@@ -26771,13 +26771,13 @@
         <v>130.6017049061567</v>
       </c>
       <c r="N3" t="n">
-        <v>130.6017049061567</v>
+        <v>130.6017049061566</v>
       </c>
       <c r="O3" t="n">
-        <v>130.6017049061567</v>
+        <v>130.6017049061566</v>
       </c>
       <c r="P3" t="n">
-        <v>130.6017049061567</v>
+        <v>130.6017049061565</v>
       </c>
     </row>
     <row r="4">
@@ -26808,28 +26808,28 @@
         <v>425.8335505624412</v>
       </c>
       <c r="I4" t="n">
-        <v>425.8335505624412</v>
+        <v>425.8335505624414</v>
       </c>
       <c r="J4" t="n">
-        <v>721.4776733116944</v>
+        <v>721.4776733116945</v>
       </c>
       <c r="K4" t="n">
-        <v>721.4776733116944</v>
+        <v>721.4776733116945</v>
       </c>
       <c r="L4" t="n">
-        <v>714.1838098311536</v>
+        <v>714.1838098311537</v>
       </c>
       <c r="M4" t="n">
-        <v>434.1530315048094</v>
+        <v>434.1530315048097</v>
       </c>
       <c r="N4" t="n">
-        <v>434.1530315048096</v>
+        <v>434.1530315048097</v>
       </c>
       <c r="O4" t="n">
-        <v>523.8144556458425</v>
+        <v>523.8144556458398</v>
       </c>
       <c r="P4" t="n">
-        <v>523.8144556458425</v>
+        <v>523.8144556458399</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>121.7571015243691</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>101.6002083184545</v>
+        <v>101.6002083184544</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>40.56663129637303</v>
+        <v>40.56663129637296</v>
       </c>
       <c r="K2" t="n">
-        <v>2.486899575160351e-14</v>
+        <v>1.385230391931075e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>103.48727667814</v>
+        <v>103.4872766781399</v>
       </c>
       <c r="M2" t="n">
         <v>76.61288173154873</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>13.80062708048686</v>
+        <v>13.80062708048764</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>130.6017049061566</v>
+        <v>130.6017049061567</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.5089087555563</v>
+        <v>138.5089087555565</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>89.66142414103285</v>
+        <v>89.66142414103001</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>121.7571015243691</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>101.6002083184545</v>
+        <v>101.6002083184544</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.56663129637303</v>
+        <v>40.56663129637296</v>
       </c>
       <c r="P2" t="n">
-        <v>2.486899575160351e-14</v>
+        <v>1.385230391931075e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383.716409991395</v>
+        <v>377.9512521722971</v>
       </c>
       <c r="C8" t="n">
         <v>366.9850956789426</v>
@@ -27859,7 +27859,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E8" t="n">
-        <v>383.1180357552875</v>
+        <v>375.8241722747466</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>136.0856648817791</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>198.5710882429984</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
@@ -27935,19 +27935,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>138.8185600941047</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>137.0817971298889</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>128.7293467245015</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>103.1686520415919</v>
       </c>
       <c r="I9" t="n">
         <v>79.20967998493083</v>
@@ -27980,7 +27980,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>162.537178951984</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
@@ -27989,7 +27989,7 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>224.6148675591143</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
         <v>249.98934675</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.0836914906838</v>
+        <v>172.789828010143</v>
       </c>
       <c r="C10" t="n">
         <v>167.3365529312023</v>
@@ -28017,25 +28017,25 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E10" t="n">
-        <v>140.5501892195388</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F10" t="n">
-        <v>138.8651579292637</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G10" t="n">
-        <v>160.5957254495672</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H10" t="n">
-        <v>154.340208528376</v>
+        <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>153.7585467974036</v>
+        <v>147.3341118437432</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>81.5449814472381</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>7.480546237292515</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28178,16 +28178,16 @@
         <v>121.7571015243691</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.83162475308177</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.25349169834071</v>
+        <v>28.65850382996676</v>
       </c>
       <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>121.7571015243691</v>
       </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>10.33814051084121</v>
-      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>121.7571015243691</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.7571015243691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="C14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="D14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="E14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="F14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="G14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="H14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="I14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>108.8702826172133</v>
       </c>
       <c r="S14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="T14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="U14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="V14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="W14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="X14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="Y14" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
     </row>
     <row r="15">
@@ -28406,19 +28406,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="D15" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="E15" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="G15" t="n">
-        <v>121.7571015243691</v>
+        <v>10.33814051084101</v>
       </c>
       <c r="H15" t="n">
         <v>107.7494499164407</v>
@@ -28454,22 +28454,22 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S15" t="n">
-        <v>10.33814051084113</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="U15" t="n">
-        <v>121.7571015243691</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>121.7571015243691</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>121.7571015243691</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="C16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="D16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="E16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="F16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="G16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="H16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="I16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="J16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="K16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="L16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="M16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="N16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="O16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="P16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="Q16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="R16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="S16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="T16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="U16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="V16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="W16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="X16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
       <c r="Y16" t="n">
-        <v>121.7571015243691</v>
+        <v>121.7571015243692</v>
       </c>
     </row>
     <row r="17">
@@ -28640,19 +28640,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>160.3704439692747</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
         <v>135.7422933303385</v>
@@ -28661,7 +28661,7 @@
         <v>107.7494499164407</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,16 +28688,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>118.2781663301221</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.3573098428237</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -28706,7 +28706,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E19" t="n">
         <v>146.9746241731992</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.17763450978692</v>
+        <v>60.03984243501851</v>
       </c>
       <c r="R19" t="n">
         <v>162.8017045146044</v>
@@ -28782,7 +28782,7 @@
         <v>223.3573098428237</v>
       </c>
       <c r="W19" t="n">
-        <v>223.3573098428237</v>
+        <v>27.48953540307269</v>
       </c>
       <c r="X19" t="n">
         <v>223.3573098428237</v>
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -28892,10 +28892,10 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>109.1724337276293</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>76.83162475308175</v>
@@ -28931,19 +28931,19 @@
         <v>163.7437061671767</v>
       </c>
       <c r="T21" t="n">
-        <v>197.2502397685634</v>
+        <v>0.8935494080632793</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>223.3573098428237</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>223.3573098428237</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -29007,7 +29007,7 @@
         <v>162.8017045146044</v>
       </c>
       <c r="S22" t="n">
-        <v>22.38531336912891</v>
+        <v>218.2530878088799</v>
       </c>
       <c r="T22" t="n">
         <v>223.3573098428237</v>
@@ -29025,7 +29025,7 @@
         <v>223.3573098428237</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.7486738677682</v>
+        <v>22.88089942801727</v>
       </c>
     </row>
     <row r="23">
@@ -29114,22 +29114,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.7422933303385</v>
       </c>
       <c r="H24" t="n">
         <v>107.7494499164407</v>
@@ -29165,13 +29165,13 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S24" t="n">
-        <v>129.8565346813423</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.2502397685634</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>88.11107668380345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -29238,10 +29238,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>60.03984243501851</v>
       </c>
       <c r="R25" t="n">
-        <v>26.97377250987199</v>
+        <v>162.8017045146044</v>
       </c>
       <c r="S25" t="n">
         <v>218.2530878088799</v>
@@ -29262,7 +29262,7 @@
         <v>223.3573098428237</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.7486738677682</v>
+        <v>22.88089942801722</v>
       </c>
     </row>
     <row r="26">
@@ -29351,13 +29351,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>142.1668396148276</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>142.1668396148276</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -29366,10 +29366,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>76.83162475308175</v>
@@ -29402,22 +29402,22 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>14.97939211489802</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>142.1668396148276</v>
-      </c>
-      <c r="T27" t="n">
-        <v>55.82132809777428</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -29457,13 +29457,13 @@
         <v>142.1668396148276</v>
       </c>
       <c r="K28" t="n">
-        <v>83.38782679931532</v>
+        <v>83.38782679931538</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>142.1668396148276</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>142.1668396148276</v>
       </c>
       <c r="Q28" t="n">
         <v>142.1668396148276</v>
@@ -29600,16 +29600,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>142.1668396148276</v>
       </c>
       <c r="G30" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>107.7494499164407</v>
       </c>
       <c r="I30" t="n">
-        <v>76.83162475308175</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.2534916983407</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>55.82132809777403</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
         <v>142.1668396148276</v>
       </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>142.1668396148276</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>61.31505864988006</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29691,10 +29691,10 @@
         <v>142.1668396148276</v>
       </c>
       <c r="J31" t="n">
-        <v>72.18819805802188</v>
+        <v>142.1668396148276</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>83.38782679931531</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29703,13 +29703,13 @@
         <v>142.1668396148276</v>
       </c>
       <c r="N31" t="n">
-        <v>11.199628741293</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>142.1668396148276</v>
       </c>
       <c r="P31" t="n">
-        <v>142.1668396148276</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>142.1668396148276</v>
@@ -29788,7 +29788,7 @@
         <v>144.053907974513</v>
       </c>
       <c r="P32" t="n">
-        <v>98.18954036994955</v>
+        <v>98.18954036995001</v>
       </c>
       <c r="Q32" t="n">
         <v>144.053907974513</v>
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>144.053907974513</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>53.93425973808849</v>
       </c>
       <c r="G33" t="n">
         <v>135.7422933303385</v>
@@ -29846,7 +29846,7 @@
         <v>107.7494499164407</v>
       </c>
       <c r="I33" t="n">
-        <v>63.96546821499817</v>
+        <v>76.83162475308175</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29873,16 +29873,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>77.2534916983407</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>144.053907974513</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>144.053907974513</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -29928,10 +29928,10 @@
         <v>144.053907974513</v>
       </c>
       <c r="J34" t="n">
-        <v>129.0474830415152</v>
+        <v>144.053907974513</v>
       </c>
       <c r="K34" t="n">
-        <v>144.053907974513</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,13 +29943,13 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>45.03341750202095</v>
+      </c>
+      <c r="P34" t="n">
         <v>144.053907974513</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
       <c r="Q34" t="n">
-        <v>60.03984243501851</v>
+        <v>144.053907974513</v>
       </c>
       <c r="R34" t="n">
         <v>144.053907974513</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="C35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="D35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="E35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="F35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="G35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="H35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="I35" t="n">
         <v>184.9830124775929</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>141.8120657425499</v>
+        <v>141.8120657425513</v>
       </c>
       <c r="S35" t="n">
         <v>193.9007854901762</v>
       </c>
       <c r="T35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="U35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="V35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="W35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="X35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="Y35" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -30113,13 +30113,13 @@
         <v>77.2534916983407</v>
       </c>
       <c r="S36" t="n">
-        <v>154.9351852109503</v>
+        <v>163.7437061671767</v>
       </c>
       <c r="T36" t="n">
         <v>197.2502397685634</v>
       </c>
       <c r="U36" t="n">
-        <v>220.6667897060618</v>
+        <v>40.83268482243301</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30144,13 +30144,13 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -30195,19 +30195,19 @@
         <v>218.2530878088799</v>
       </c>
       <c r="T37" t="n">
-        <v>205.5881688813227</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="U37" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="V37" t="n">
-        <v>220.6667897060618</v>
+        <v>185.2262401233196</v>
       </c>
       <c r="W37" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="X37" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="Y37" t="n">
         <v>218.7486738677682</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="C38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="D38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="E38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="F38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="G38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="H38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="I38" t="n">
-        <v>184.9830124775929</v>
+        <v>217.9247956029317</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>115.0460615266652</v>
+        <v>108.8702826172133</v>
       </c>
       <c r="S38" t="n">
-        <v>220.6667897060618</v>
+        <v>193.9007854901762</v>
       </c>
       <c r="T38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="U38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="V38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="W38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="X38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="Y38" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
     </row>
     <row r="39">
@@ -30320,7 +30320,7 @@
         <v>107.7494499164407</v>
       </c>
       <c r="I39" t="n">
-        <v>76.83162475308175</v>
+        <v>76.83162475308177</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.2534916983407</v>
+        <v>68.44497074211297</v>
       </c>
       <c r="S39" t="n">
         <v>163.7437061671767</v>
@@ -30356,7 +30356,7 @@
         <v>197.2502397685634</v>
       </c>
       <c r="U39" t="n">
-        <v>7.396639141356133</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30365,7 +30365,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>146.6760805706894</v>
       </c>
       <c r="J40" t="n">
-        <v>72.18819805802188</v>
+        <v>72.1881980580219</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>60.03984243501851</v>
+        <v>60.03984243501854</v>
       </c>
       <c r="R40" t="n">
         <v>162.8017045146044</v>
@@ -30432,19 +30432,19 @@
         <v>218.2530878088799</v>
       </c>
       <c r="T40" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="U40" t="n">
-        <v>220.6667897060618</v>
+        <v>38.25161595012068</v>
       </c>
       <c r="V40" t="n">
-        <v>38.25161595012028</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="W40" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="X40" t="n">
-        <v>220.6667897060618</v>
+        <v>220.6667897060617</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="I41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30496,37 +30496,37 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>193.9007854901756</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>100.1157345100702</v>
+        <v>100.1157345100578</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="R41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="S41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
     </row>
     <row r="42">
@@ -30536,25 +30536,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>5.79334628449655</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
-        <v>135.7422933303385</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7494499164407</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,13 +30587,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7437061671767</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>193.9007854901756</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>21.3347846731244</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D43" t="n">
-        <v>149.6330922973847</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
         <v>146.9746241731992</v>
@@ -30639,7 +30639,7 @@
         <v>146.6760805706894</v>
       </c>
       <c r="J43" t="n">
-        <v>72.18819805802188</v>
+        <v>72.1881980580219</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>60.03984243501851</v>
+        <v>60.03984243501854</v>
       </c>
       <c r="R43" t="n">
-        <v>162.8017045146044</v>
+        <v>163.4292302974641</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901764</v>
       </c>
     </row>
     <row r="44">
@@ -30694,34 +30694,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="C44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="D44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="E44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="F44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="G44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="H44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="I44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>100.1157345100708</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -30733,37 +30733,37 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>100.1157345100589</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="R44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="S44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="T44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="U44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="V44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="W44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="X44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="Y44" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
     </row>
     <row r="45">
@@ -30776,13 +30776,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7494499164407</v>
       </c>
       <c r="I45" t="n">
-        <v>40.76866310672893</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30827,10 +30827,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>193.9007854901756</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>193.9007854901756</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30839,7 +30839,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>193.9007854901756</v>
+        <v>187.6625520262504</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -30858,13 +30858,13 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D46" t="n">
-        <v>149.0055665145194</v>
+        <v>149.6330922973802</v>
       </c>
       <c r="E46" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F46" t="n">
-        <v>146.78654719267</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
         <v>167.6540776589658</v>
@@ -30876,7 +30876,7 @@
         <v>146.6760805706894</v>
       </c>
       <c r="J46" t="n">
-        <v>72.18819805802188</v>
+        <v>72.1881980580219</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>60.03984243501851</v>
+        <v>60.03984243501854</v>
       </c>
       <c r="R46" t="n">
         <v>162.8017045146044</v>
       </c>
       <c r="S46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="T46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="U46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="V46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="W46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="X46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.9007854901756</v>
+        <v>193.9007854901763</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5250319795222373</v>
+        <v>0.5250319795222376</v>
       </c>
       <c r="H11" t="n">
-        <v>5.376983760282115</v>
+        <v>5.376983760282117</v>
       </c>
       <c r="I11" t="n">
-        <v>20.24129539053108</v>
+        <v>20.24129539053109</v>
       </c>
       <c r="J11" t="n">
-        <v>44.56143297197553</v>
+        <v>44.56143297197556</v>
       </c>
       <c r="K11" t="n">
-        <v>66.78603666515185</v>
+        <v>66.78603666515188</v>
       </c>
       <c r="L11" t="n">
-        <v>82.85398410845555</v>
+        <v>82.85398410845558</v>
       </c>
       <c r="M11" t="n">
-        <v>92.19102157428412</v>
+        <v>92.19102157428416</v>
       </c>
       <c r="N11" t="n">
-        <v>93.6827686861017</v>
+        <v>93.68276868610174</v>
       </c>
       <c r="O11" t="n">
-        <v>88.46198193972744</v>
+        <v>88.46198193972748</v>
       </c>
       <c r="P11" t="n">
-        <v>75.50025494527219</v>
+        <v>75.50025494527222</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.69754717863205</v>
+        <v>56.69754717863207</v>
       </c>
       <c r="R11" t="n">
-        <v>32.98054008366377</v>
+        <v>32.98054008366378</v>
       </c>
       <c r="S11" t="n">
         <v>11.964166233363</v>
       </c>
       <c r="T11" t="n">
-        <v>2.298327490358595</v>
+        <v>2.298327490358596</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04200255836177898</v>
+        <v>0.042002558361779</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2809168747038087</v>
+        <v>0.2809168747038088</v>
       </c>
       <c r="H12" t="n">
-        <v>2.713065605692047</v>
+        <v>2.713065605692048</v>
       </c>
       <c r="I12" t="n">
-        <v>9.671918712389903</v>
+        <v>9.671918712389909</v>
       </c>
       <c r="J12" t="n">
-        <v>26.54048420173133</v>
+        <v>26.54048420173134</v>
       </c>
       <c r="K12" t="n">
-        <v>45.3619148068865</v>
+        <v>45.36191480688652</v>
       </c>
       <c r="L12" t="n">
-        <v>60.99469246584231</v>
+        <v>60.99469246584234</v>
       </c>
       <c r="M12" t="n">
-        <v>71.17792917385536</v>
+        <v>71.17792917385539</v>
       </c>
       <c r="N12" t="n">
-        <v>73.0617971625489</v>
+        <v>73.06179716254893</v>
       </c>
       <c r="O12" t="n">
-        <v>66.83727062305924</v>
+        <v>66.83727062305927</v>
       </c>
       <c r="P12" t="n">
-        <v>53.64280215287027</v>
+        <v>53.64280215287029</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.85879263763003</v>
+        <v>35.85879263763005</v>
       </c>
       <c r="R12" t="n">
-        <v>17.44148806275051</v>
+        <v>17.44148806275052</v>
       </c>
       <c r="S12" t="n">
-        <v>5.21790773846767</v>
+        <v>5.217907738467672</v>
       </c>
       <c r="T12" t="n">
-        <v>1.132292139705263</v>
+        <v>1.132292139705264</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01848137333577689</v>
+        <v>0.0184813733357769</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2355112711422497</v>
+        <v>0.2355112711422498</v>
       </c>
       <c r="H13" t="n">
-        <v>2.093909301610185</v>
+        <v>2.093909301610186</v>
       </c>
       <c r="I13" t="n">
-        <v>7.082466226714201</v>
+        <v>7.082466226714204</v>
       </c>
       <c r="J13" t="n">
-        <v>16.65064686975705</v>
+        <v>16.65064686975706</v>
       </c>
       <c r="K13" t="n">
-        <v>27.36212768361773</v>
+        <v>27.36212768361774</v>
       </c>
       <c r="L13" t="n">
-        <v>35.01410298418502</v>
+        <v>35.01410298418503</v>
       </c>
       <c r="M13" t="n">
-        <v>36.91746225732555</v>
+        <v>36.91746225732557</v>
       </c>
       <c r="N13" t="n">
-        <v>36.03964751943174</v>
+        <v>36.03964751943175</v>
       </c>
       <c r="O13" t="n">
-        <v>33.28844767017908</v>
+        <v>33.2884476701791</v>
       </c>
       <c r="P13" t="n">
-        <v>28.48401773887716</v>
+        <v>28.48401773887718</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.72085744082965</v>
+        <v>19.72085744082966</v>
       </c>
       <c r="R13" t="n">
         <v>10.58944315517788</v>
       </c>
       <c r="S13" t="n">
-        <v>4.104319152542659</v>
+        <v>4.104319152542661</v>
       </c>
       <c r="T13" t="n">
-        <v>1.006275431244157</v>
+        <v>1.006275431244158</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01284606933503181</v>
+        <v>0.01284606933503182</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5250319795222375</v>
+        <v>0.5250319795222376</v>
       </c>
       <c r="H14" t="n">
-        <v>5.376983760282116</v>
+        <v>5.376983760282117</v>
       </c>
       <c r="I14" t="n">
-        <v>20.24129539053108</v>
+        <v>20.24129539053109</v>
       </c>
       <c r="J14" t="n">
-        <v>44.56143297197554</v>
+        <v>44.56143297197556</v>
       </c>
       <c r="K14" t="n">
-        <v>66.78603666515187</v>
+        <v>66.78603666515188</v>
       </c>
       <c r="L14" t="n">
-        <v>82.85398410845556</v>
+        <v>82.85398410845558</v>
       </c>
       <c r="M14" t="n">
-        <v>92.19102157428415</v>
+        <v>92.19102157428416</v>
       </c>
       <c r="N14" t="n">
-        <v>93.68276868610171</v>
+        <v>93.68276868610174</v>
       </c>
       <c r="O14" t="n">
-        <v>88.46198193972745</v>
+        <v>88.46198193972748</v>
       </c>
       <c r="P14" t="n">
-        <v>75.5002549452722</v>
+        <v>75.50025494527222</v>
       </c>
       <c r="Q14" t="n">
-        <v>56.69754717863206</v>
+        <v>56.69754717863207</v>
       </c>
       <c r="R14" t="n">
         <v>32.98054008366378</v>
@@ -32029,7 +32029,7 @@
         <v>2.298327490358596</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04200255836177899</v>
+        <v>0.042002558361779</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2809168747038087</v>
+        <v>0.2809168747038088</v>
       </c>
       <c r="H15" t="n">
-        <v>2.713065605692047</v>
+        <v>2.713065605692048</v>
       </c>
       <c r="I15" t="n">
-        <v>9.671918712389905</v>
+        <v>9.671918712389909</v>
       </c>
       <c r="J15" t="n">
-        <v>26.54048420173133</v>
+        <v>26.54048420173134</v>
       </c>
       <c r="K15" t="n">
         <v>45.36191480688652</v>
       </c>
       <c r="L15" t="n">
-        <v>60.99469246584233</v>
+        <v>60.99469246584234</v>
       </c>
       <c r="M15" t="n">
-        <v>71.17792917385538</v>
+        <v>71.17792917385539</v>
       </c>
       <c r="N15" t="n">
-        <v>73.06179716254891</v>
+        <v>73.06179716254893</v>
       </c>
       <c r="O15" t="n">
-        <v>66.83727062305925</v>
+        <v>66.83727062305927</v>
       </c>
       <c r="P15" t="n">
-        <v>53.64280215287028</v>
+        <v>53.64280215287029</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.85879263763004</v>
+        <v>35.85879263763005</v>
       </c>
       <c r="R15" t="n">
         <v>17.44148806275052</v>
       </c>
       <c r="S15" t="n">
-        <v>5.217907738467671</v>
+        <v>5.217907738467672</v>
       </c>
       <c r="T15" t="n">
         <v>1.132292139705264</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01848137333577689</v>
+        <v>0.0184813733357769</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2355112711422497</v>
+        <v>0.2355112711422498</v>
       </c>
       <c r="H16" t="n">
-        <v>2.093909301610185</v>
+        <v>2.093909301610186</v>
       </c>
       <c r="I16" t="n">
-        <v>7.082466226714202</v>
+        <v>7.082466226714204</v>
       </c>
       <c r="J16" t="n">
-        <v>16.65064686975705</v>
+        <v>16.65064686975706</v>
       </c>
       <c r="K16" t="n">
-        <v>27.36212768361773</v>
+        <v>27.36212768361774</v>
       </c>
       <c r="L16" t="n">
-        <v>35.01410298418502</v>
+        <v>35.01410298418503</v>
       </c>
       <c r="M16" t="n">
-        <v>36.91746225732555</v>
+        <v>36.91746225732557</v>
       </c>
       <c r="N16" t="n">
         <v>36.03964751943175</v>
       </c>
       <c r="O16" t="n">
-        <v>33.28844767017909</v>
+        <v>33.2884476701791</v>
       </c>
       <c r="P16" t="n">
-        <v>28.48401773887717</v>
+        <v>28.48401773887718</v>
       </c>
       <c r="Q16" t="n">
         <v>19.72085744082966</v>
@@ -32181,7 +32181,7 @@
         <v>10.58944315517788</v>
       </c>
       <c r="S16" t="n">
-        <v>4.10431915254266</v>
+        <v>4.104319152542661</v>
       </c>
       <c r="T16" t="n">
         <v>1.006275431244158</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5250319795222376</v>
+        <v>0.525031979522237</v>
       </c>
       <c r="H38" t="n">
-        <v>5.376983760282117</v>
+        <v>5.376983760282111</v>
       </c>
       <c r="I38" t="n">
-        <v>20.24129539053109</v>
+        <v>20.24129539053106</v>
       </c>
       <c r="J38" t="n">
-        <v>44.56143297197556</v>
+        <v>44.56143297197551</v>
       </c>
       <c r="K38" t="n">
-        <v>66.78603666515188</v>
+        <v>66.78603666515181</v>
       </c>
       <c r="L38" t="n">
-        <v>82.85398410845558</v>
+        <v>82.85398410845549</v>
       </c>
       <c r="M38" t="n">
-        <v>92.19102157428416</v>
+        <v>92.19102157428406</v>
       </c>
       <c r="N38" t="n">
-        <v>93.68276868610174</v>
+        <v>93.68276868610162</v>
       </c>
       <c r="O38" t="n">
-        <v>88.46198193972748</v>
+        <v>88.46198193972738</v>
       </c>
       <c r="P38" t="n">
-        <v>75.50025494527222</v>
+        <v>75.50025494527215</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.69754717863207</v>
+        <v>56.69754717863201</v>
       </c>
       <c r="R38" t="n">
-        <v>32.98054008366378</v>
+        <v>32.98054008366375</v>
       </c>
       <c r="S38" t="n">
-        <v>11.964166233363</v>
+        <v>11.96416623336299</v>
       </c>
       <c r="T38" t="n">
-        <v>2.298327490358596</v>
+        <v>2.298327490358594</v>
       </c>
       <c r="U38" t="n">
-        <v>0.042002558361779</v>
+        <v>0.04200255836177895</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2809168747038088</v>
+        <v>0.2809168747038084</v>
       </c>
       <c r="H39" t="n">
-        <v>2.713065605692048</v>
+        <v>2.713065605692045</v>
       </c>
       <c r="I39" t="n">
-        <v>9.671918712389909</v>
+        <v>9.671918712389898</v>
       </c>
       <c r="J39" t="n">
-        <v>26.54048420173134</v>
+        <v>26.54048420173131</v>
       </c>
       <c r="K39" t="n">
-        <v>45.36191480688652</v>
+        <v>45.36191480688647</v>
       </c>
       <c r="L39" t="n">
-        <v>60.99469246584234</v>
+        <v>60.99469246584228</v>
       </c>
       <c r="M39" t="n">
-        <v>71.17792917385539</v>
+        <v>71.17792917385532</v>
       </c>
       <c r="N39" t="n">
-        <v>73.06179716254893</v>
+        <v>73.06179716254886</v>
       </c>
       <c r="O39" t="n">
-        <v>66.83727062305927</v>
+        <v>66.8372706230592</v>
       </c>
       <c r="P39" t="n">
-        <v>53.64280215287029</v>
+        <v>53.64280215287023</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.85879263763005</v>
+        <v>35.85879263763001</v>
       </c>
       <c r="R39" t="n">
-        <v>17.44148806275052</v>
+        <v>17.4414880627505</v>
       </c>
       <c r="S39" t="n">
-        <v>5.217907738467672</v>
+        <v>5.217907738467667</v>
       </c>
       <c r="T39" t="n">
-        <v>1.132292139705264</v>
+        <v>1.132292139705263</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0184813733357769</v>
+        <v>0.01848137333577688</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2355112711422498</v>
+        <v>0.2355112711422495</v>
       </c>
       <c r="H40" t="n">
-        <v>2.093909301610186</v>
+        <v>2.093909301610184</v>
       </c>
       <c r="I40" t="n">
-        <v>7.082466226714204</v>
+        <v>7.082466226714196</v>
       </c>
       <c r="J40" t="n">
-        <v>16.65064686975706</v>
+        <v>16.65064686975704</v>
       </c>
       <c r="K40" t="n">
-        <v>27.36212768361774</v>
+        <v>27.36212768361771</v>
       </c>
       <c r="L40" t="n">
-        <v>35.01410298418503</v>
+        <v>35.01410298418499</v>
       </c>
       <c r="M40" t="n">
-        <v>36.91746225732557</v>
+        <v>36.91746225732552</v>
       </c>
       <c r="N40" t="n">
-        <v>36.03964751943175</v>
+        <v>36.03964751943172</v>
       </c>
       <c r="O40" t="n">
-        <v>33.2884476701791</v>
+        <v>33.28844767017906</v>
       </c>
       <c r="P40" t="n">
-        <v>28.48401773887718</v>
+        <v>28.48401773887715</v>
       </c>
       <c r="Q40" t="n">
-        <v>19.72085744082966</v>
+        <v>19.72085744082964</v>
       </c>
       <c r="R40" t="n">
-        <v>10.58944315517788</v>
+        <v>10.58944315517787</v>
       </c>
       <c r="S40" t="n">
-        <v>4.104319152542661</v>
+        <v>4.104319152542656</v>
       </c>
       <c r="T40" t="n">
-        <v>1.006275431244158</v>
+        <v>1.006275431244157</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01284606933503182</v>
+        <v>0.01284606933503181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5250319795222376</v>
+        <v>0.525031979522237</v>
       </c>
       <c r="H41" t="n">
-        <v>5.376983760282117</v>
+        <v>5.376983760282111</v>
       </c>
       <c r="I41" t="n">
-        <v>20.24129539053109</v>
+        <v>20.24129539053106</v>
       </c>
       <c r="J41" t="n">
-        <v>44.56143297197556</v>
+        <v>44.56143297197551</v>
       </c>
       <c r="K41" t="n">
-        <v>66.78603666515188</v>
+        <v>66.78603666515181</v>
       </c>
       <c r="L41" t="n">
-        <v>82.85398410845558</v>
+        <v>82.85398410845549</v>
       </c>
       <c r="M41" t="n">
-        <v>92.19102157428416</v>
+        <v>92.19102157428406</v>
       </c>
       <c r="N41" t="n">
-        <v>93.68276868610174</v>
+        <v>93.68276868610162</v>
       </c>
       <c r="O41" t="n">
-        <v>88.46198193972748</v>
+        <v>88.46198193972738</v>
       </c>
       <c r="P41" t="n">
-        <v>75.50025494527222</v>
+        <v>75.50025494527215</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.69754717863207</v>
+        <v>56.69754717863201</v>
       </c>
       <c r="R41" t="n">
-        <v>32.98054008366378</v>
+        <v>32.98054008366375</v>
       </c>
       <c r="S41" t="n">
-        <v>11.964166233363</v>
+        <v>11.96416623336299</v>
       </c>
       <c r="T41" t="n">
-        <v>2.298327490358596</v>
+        <v>2.298327490358594</v>
       </c>
       <c r="U41" t="n">
-        <v>0.042002558361779</v>
+        <v>0.04200255836177895</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2809168747038088</v>
+        <v>0.2809168747038084</v>
       </c>
       <c r="H42" t="n">
-        <v>2.713065605692048</v>
+        <v>2.713065605692045</v>
       </c>
       <c r="I42" t="n">
-        <v>9.671918712389909</v>
+        <v>9.671918712389898</v>
       </c>
       <c r="J42" t="n">
-        <v>26.54048420173134</v>
+        <v>26.54048420173131</v>
       </c>
       <c r="K42" t="n">
-        <v>45.36191480688652</v>
+        <v>45.36191480688647</v>
       </c>
       <c r="L42" t="n">
-        <v>60.99469246584234</v>
+        <v>60.99469246584228</v>
       </c>
       <c r="M42" t="n">
-        <v>71.17792917385539</v>
+        <v>71.17792917385532</v>
       </c>
       <c r="N42" t="n">
-        <v>73.06179716254893</v>
+        <v>73.06179716254886</v>
       </c>
       <c r="O42" t="n">
-        <v>66.83727062305927</v>
+        <v>66.8372706230592</v>
       </c>
       <c r="P42" t="n">
-        <v>53.64280215287029</v>
+        <v>53.64280215287023</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.85879263763005</v>
+        <v>35.85879263763001</v>
       </c>
       <c r="R42" t="n">
-        <v>17.44148806275052</v>
+        <v>17.4414880627505</v>
       </c>
       <c r="S42" t="n">
-        <v>5.217907738467672</v>
+        <v>5.217907738467667</v>
       </c>
       <c r="T42" t="n">
-        <v>1.132292139705264</v>
+        <v>1.132292139705263</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0184813733357769</v>
+        <v>0.01848137333577688</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2355112711422498</v>
+        <v>0.2355112711422495</v>
       </c>
       <c r="H43" t="n">
-        <v>2.093909301610186</v>
+        <v>2.093909301610184</v>
       </c>
       <c r="I43" t="n">
-        <v>7.082466226714204</v>
+        <v>7.082466226714196</v>
       </c>
       <c r="J43" t="n">
-        <v>16.65064686975706</v>
+        <v>16.65064686975704</v>
       </c>
       <c r="K43" t="n">
-        <v>27.36212768361774</v>
+        <v>27.36212768361771</v>
       </c>
       <c r="L43" t="n">
-        <v>35.01410298418503</v>
+        <v>35.01410298418499</v>
       </c>
       <c r="M43" t="n">
-        <v>36.91746225732557</v>
+        <v>36.91746225732552</v>
       </c>
       <c r="N43" t="n">
-        <v>36.03964751943175</v>
+        <v>36.03964751943172</v>
       </c>
       <c r="O43" t="n">
-        <v>33.2884476701791</v>
+        <v>33.28844767017906</v>
       </c>
       <c r="P43" t="n">
-        <v>28.48401773887718</v>
+        <v>28.48401773887715</v>
       </c>
       <c r="Q43" t="n">
-        <v>19.72085744082966</v>
+        <v>19.72085744082964</v>
       </c>
       <c r="R43" t="n">
-        <v>10.58944315517788</v>
+        <v>10.58944315517787</v>
       </c>
       <c r="S43" t="n">
-        <v>4.104319152542661</v>
+        <v>4.104319152542656</v>
       </c>
       <c r="T43" t="n">
-        <v>1.006275431244158</v>
+        <v>1.006275431244157</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01284606933503182</v>
+        <v>0.01284606933503181</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5250319795222376</v>
+        <v>0.5250319795222368</v>
       </c>
       <c r="H44" t="n">
-        <v>5.376983760282117</v>
+        <v>5.376983760282108</v>
       </c>
       <c r="I44" t="n">
-        <v>20.24129539053109</v>
+        <v>20.24129539053105</v>
       </c>
       <c r="J44" t="n">
-        <v>44.56143297197556</v>
+        <v>44.56143297197548</v>
       </c>
       <c r="K44" t="n">
-        <v>66.78603666515188</v>
+        <v>66.78603666515178</v>
       </c>
       <c r="L44" t="n">
-        <v>82.85398410845558</v>
+        <v>82.85398410845545</v>
       </c>
       <c r="M44" t="n">
-        <v>92.19102157428416</v>
+        <v>92.19102157428402</v>
       </c>
       <c r="N44" t="n">
-        <v>93.68276868610174</v>
+        <v>93.6827686861016</v>
       </c>
       <c r="O44" t="n">
-        <v>88.46198193972748</v>
+        <v>88.46198193972734</v>
       </c>
       <c r="P44" t="n">
-        <v>75.50025494527222</v>
+        <v>75.5002549452721</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.69754717863207</v>
+        <v>56.69754717863199</v>
       </c>
       <c r="R44" t="n">
-        <v>32.98054008366378</v>
+        <v>32.98054008366373</v>
       </c>
       <c r="S44" t="n">
-        <v>11.964166233363</v>
+        <v>11.96416623336298</v>
       </c>
       <c r="T44" t="n">
-        <v>2.298327490358596</v>
+        <v>2.298327490358593</v>
       </c>
       <c r="U44" t="n">
-        <v>0.042002558361779</v>
+        <v>0.04200255836177894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2809168747038088</v>
+        <v>0.2809168747038083</v>
       </c>
       <c r="H45" t="n">
-        <v>2.713065605692048</v>
+        <v>2.713065605692044</v>
       </c>
       <c r="I45" t="n">
-        <v>9.671918712389909</v>
+        <v>9.671918712389893</v>
       </c>
       <c r="J45" t="n">
-        <v>26.54048420173134</v>
+        <v>26.5404842017313</v>
       </c>
       <c r="K45" t="n">
-        <v>45.36191480688652</v>
+        <v>45.36191480688645</v>
       </c>
       <c r="L45" t="n">
-        <v>60.99469246584234</v>
+        <v>60.99469246584225</v>
       </c>
       <c r="M45" t="n">
-        <v>71.17792917385539</v>
+        <v>71.17792917385528</v>
       </c>
       <c r="N45" t="n">
-        <v>73.06179716254893</v>
+        <v>73.06179716254881</v>
       </c>
       <c r="O45" t="n">
-        <v>66.83727062305927</v>
+        <v>66.83727062305917</v>
       </c>
       <c r="P45" t="n">
-        <v>53.64280215287029</v>
+        <v>53.64280215287021</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.85879263763005</v>
+        <v>35.85879263762999</v>
       </c>
       <c r="R45" t="n">
-        <v>17.44148806275052</v>
+        <v>17.44148806275049</v>
       </c>
       <c r="S45" t="n">
-        <v>5.217907738467672</v>
+        <v>5.217907738467664</v>
       </c>
       <c r="T45" t="n">
-        <v>1.132292139705264</v>
+        <v>1.132292139705262</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0184813733357769</v>
+        <v>0.01848137333577687</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2355112711422498</v>
+        <v>0.2355112711422494</v>
       </c>
       <c r="H46" t="n">
-        <v>2.093909301610186</v>
+        <v>2.093909301610183</v>
       </c>
       <c r="I46" t="n">
-        <v>7.082466226714204</v>
+        <v>7.082466226714193</v>
       </c>
       <c r="J46" t="n">
-        <v>16.65064686975706</v>
+        <v>16.65064686975703</v>
       </c>
       <c r="K46" t="n">
-        <v>27.36212768361774</v>
+        <v>27.3621276836177</v>
       </c>
       <c r="L46" t="n">
-        <v>35.01410298418503</v>
+        <v>35.01410298418497</v>
       </c>
       <c r="M46" t="n">
-        <v>36.91746225732557</v>
+        <v>36.91746225732551</v>
       </c>
       <c r="N46" t="n">
-        <v>36.03964751943175</v>
+        <v>36.0396475194317</v>
       </c>
       <c r="O46" t="n">
-        <v>33.2884476701791</v>
+        <v>33.28844767017905</v>
       </c>
       <c r="P46" t="n">
-        <v>28.48401773887718</v>
+        <v>28.48401773887714</v>
       </c>
       <c r="Q46" t="n">
-        <v>19.72085744082966</v>
+        <v>19.72085744082963</v>
       </c>
       <c r="R46" t="n">
-        <v>10.58944315517788</v>
+        <v>10.58944315517787</v>
       </c>
       <c r="S46" t="n">
-        <v>4.104319152542661</v>
+        <v>4.104319152542654</v>
       </c>
       <c r="T46" t="n">
-        <v>1.006275431244158</v>
+        <v>1.006275431244156</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01284606933503182</v>
+        <v>0.0128460693350318</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35179,7 +35179,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>2.939619267058895</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="N8" t="n">
         <v>7.293863480540836</v>
@@ -35188,10 +35188,10 @@
         <v>7.293863480540836</v>
       </c>
       <c r="P8" t="n">
-        <v>7.293863480540836</v>
+        <v>6.999161925771512</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.059542658712616</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35334,7 +35334,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>7.293863480540836</v>
+        <v>0.8771400270876715</v>
       </c>
       <c r="M10" t="n">
         <v>7.293863480540836</v>
@@ -35343,7 +35343,7 @@
         <v>7.293863480540836</v>
       </c>
       <c r="O10" t="n">
-        <v>0.8771400270876728</v>
+        <v>7.293863480540836</v>
       </c>
       <c r="P10" t="n">
         <v>6.12202189868384</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.90215583741312</v>
+        <v>43.90215583741314</v>
       </c>
       <c r="K11" t="n">
         <v>189.3096609703072</v>
@@ -35416,19 +35416,19 @@
         <v>287.3493926451864</v>
       </c>
       <c r="M11" t="n">
-        <v>335.097519010239</v>
+        <v>335.0975190102391</v>
       </c>
       <c r="N11" t="n">
-        <v>324.845833067889</v>
+        <v>324.8458330678891</v>
       </c>
       <c r="O11" t="n">
         <v>260.1484143168381</v>
       </c>
       <c r="P11" t="n">
-        <v>184.7187405822263</v>
+        <v>184.7187405822264</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.75708983734467</v>
+        <v>60.75708983734469</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>34.00847495575648</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>186.0103582999683</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>311.5781312960625</v>
@@ -35498,16 +35498,16 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N12" t="n">
-        <v>365.5253528572943</v>
+        <v>425.8335505624412</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>337.4227443375246</v>
       </c>
       <c r="P12" t="n">
-        <v>254.2190343094329</v>
+        <v>194.3638676715283</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.8569421490421</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.56890346634727</v>
+        <v>49.56890346634719</v>
       </c>
       <c r="K13" t="n">
         <v>134.3448194901535</v>
       </c>
       <c r="L13" t="n">
-        <v>194.2323347375635</v>
+        <v>194.2323347375634</v>
       </c>
       <c r="M13" t="n">
-        <v>208.8719717786033</v>
+        <v>208.8719717786032</v>
       </c>
       <c r="N13" t="n">
-        <v>211.9937687084388</v>
+        <v>211.9937687084387</v>
       </c>
       <c r="O13" t="n">
-        <v>189.6137572245193</v>
+        <v>189.6137572245192</v>
       </c>
       <c r="P13" t="n">
         <v>156.3631411619301</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.71725908935062</v>
+        <v>61.71725908935056</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>43.90215583741313</v>
+        <v>43.90215583741314</v>
       </c>
       <c r="K14" t="n">
         <v>189.3096609703072</v>
@@ -35656,7 +35656,7 @@
         <v>335.0975190102391</v>
       </c>
       <c r="N14" t="n">
-        <v>324.845833067889</v>
+        <v>324.8458330678891</v>
       </c>
       <c r="O14" t="n">
         <v>260.1484143168381</v>
@@ -35665,7 +35665,7 @@
         <v>184.7187405822264</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.75708983734468</v>
+        <v>60.75708983734469</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>34.00847495575649</v>
       </c>
       <c r="K15" t="n">
-        <v>186.0103582999683</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>311.5781312960625</v>
       </c>
       <c r="M15" t="n">
-        <v>416.9305123998874</v>
+        <v>323.0668708062263</v>
       </c>
       <c r="N15" t="n">
-        <v>179.9680256245684</v>
+        <v>425.8335505624412</v>
       </c>
       <c r="O15" t="n">
         <v>337.4227443375246</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.56890346634727</v>
+        <v>49.56890346634735</v>
       </c>
       <c r="K16" t="n">
-        <v>134.3448194901535</v>
+        <v>134.3448194901536</v>
       </c>
       <c r="L16" t="n">
         <v>194.2323347375635</v>
       </c>
       <c r="M16" t="n">
-        <v>208.8719717786033</v>
+        <v>208.8719717786034</v>
       </c>
       <c r="N16" t="n">
-        <v>211.9937687084388</v>
+        <v>211.9937687084389</v>
       </c>
       <c r="O16" t="n">
-        <v>189.6137572245193</v>
+        <v>189.6137572245194</v>
       </c>
       <c r="P16" t="n">
-        <v>156.3631411619302</v>
+        <v>156.3631411619303</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.71725908935063</v>
+        <v>61.71725908935072</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>34.00847495575649</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>186.0103582999683</v>
       </c>
       <c r="L18" t="n">
         <v>311.5781312960625</v>
@@ -35972,13 +35972,13 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N18" t="n">
-        <v>425.8335505624412</v>
+        <v>282.3216428292026</v>
       </c>
       <c r="O18" t="n">
-        <v>159.7106355505778</v>
+        <v>337.4227443375246</v>
       </c>
       <c r="P18" t="n">
-        <v>254.2190343094329</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>117.8569421490421</v>
@@ -36209,16 +36209,16 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N21" t="n">
-        <v>400.1785849782448</v>
+        <v>28.10260851976976</v>
       </c>
       <c r="O21" t="n">
         <v>337.4227443375246</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>254.2190343094329</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>34.00847495575649</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>186.0103582999683</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>168.0662235628239</v>
+        <v>311.5781312960625</v>
       </c>
       <c r="M24" t="n">
         <v>416.9305123998874</v>
       </c>
       <c r="N24" t="n">
-        <v>425.8335505624412</v>
+        <v>425.8335505624414</v>
       </c>
       <c r="O24" t="n">
         <v>337.4227443375246</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>194.3638676715287</v>
       </c>
       <c r="Q24" t="n">
-        <v>117.8569421490421</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>69.97864155680567</v>
       </c>
       <c r="K28" t="n">
-        <v>95.97554476509971</v>
+        <v>95.97554476509977</v>
       </c>
       <c r="L28" t="n">
         <v>72.47523321319431</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2817098690617</v>
+        <v>87.11487025423413</v>
       </c>
       <c r="N28" t="n">
         <v>90.23666718406965</v>
@@ -36768,7 +36768,7 @@
         <v>210.0234953149777</v>
       </c>
       <c r="P28" t="n">
-        <v>34.60603963756102</v>
+        <v>176.7728792523886</v>
       </c>
       <c r="Q28" t="n">
         <v>82.12699717980904</v>
@@ -36841,19 +36841,19 @@
         <v>477.2643586250666</v>
       </c>
       <c r="N29" t="n">
-        <v>467.0126726827167</v>
+        <v>467.0126726827166</v>
       </c>
       <c r="O29" t="n">
         <v>402.3152539316657</v>
       </c>
       <c r="P29" t="n">
-        <v>326.885580197054</v>
+        <v>326.8855801970539</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.9239294521723</v>
+        <v>202.9239294521722</v>
       </c>
       <c r="R29" t="n">
-        <v>33.29655699761429</v>
+        <v>33.29655699761426</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>69.97864155680567</v>
       </c>
       <c r="K31" t="n">
-        <v>12.58771796578439</v>
+        <v>95.9755447650997</v>
       </c>
       <c r="L31" t="n">
         <v>72.47523321319431</v>
@@ -36999,16 +36999,16 @@
         <v>229.2817098690617</v>
       </c>
       <c r="N31" t="n">
-        <v>101.4362959253626</v>
+        <v>90.23666718406965</v>
       </c>
       <c r="O31" t="n">
         <v>210.0234953149777</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7728792523886</v>
+        <v>34.60603963756102</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.12699717980907</v>
+        <v>82.12699717980904</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>187.9560638119262</v>
       </c>
       <c r="K32" t="n">
-        <v>333.3635689448203</v>
+        <v>333.3635689448202</v>
       </c>
       <c r="L32" t="n">
         <v>431.4033006196995</v>
@@ -37081,16 +37081,16 @@
         <v>468.8997410424021</v>
       </c>
       <c r="O32" t="n">
-        <v>404.2023222913512</v>
+        <v>404.2023222913511</v>
       </c>
       <c r="P32" t="n">
-        <v>282.9082809521759</v>
+        <v>282.9082809521764</v>
       </c>
       <c r="Q32" t="n">
         <v>204.8109978118577</v>
       </c>
       <c r="R32" t="n">
-        <v>35.18362535729975</v>
+        <v>35.18362535729972</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>56.85928498349331</v>
+        <v>71.86570991649113</v>
       </c>
       <c r="K34" t="n">
-        <v>156.6416259402974</v>
+        <v>12.58771796578439</v>
       </c>
       <c r="L34" t="n">
         <v>72.47523321319431</v>
@@ -37239,13 +37239,13 @@
         <v>90.23666718406965</v>
       </c>
       <c r="O34" t="n">
-        <v>211.9105636746632</v>
+        <v>112.8900732021711</v>
       </c>
       <c r="P34" t="n">
-        <v>34.60603963756102</v>
+        <v>178.659947612074</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>84.0140655394945</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>60.75708983734469</v>
       </c>
       <c r="R35" t="n">
-        <v>32.94178312533661</v>
+        <v>32.94178312533799</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>34.00847495575649</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>186.0103582999683</v>
       </c>
       <c r="L36" t="n">
         <v>311.5781312960625</v>
       </c>
       <c r="M36" t="n">
-        <v>416.9305123998874</v>
+        <v>43.8218725401854</v>
       </c>
       <c r="N36" t="n">
-        <v>434.1530315048094</v>
+        <v>434.1530315048097</v>
       </c>
       <c r="O36" t="n">
         <v>337.4227443375246</v>
       </c>
       <c r="P36" t="n">
-        <v>218.9861698544967</v>
+        <v>254.2190343094329</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>32.94178312533873</v>
       </c>
       <c r="J38" t="n">
-        <v>43.90215583741314</v>
+        <v>43.90215583741309</v>
       </c>
       <c r="K38" t="n">
-        <v>189.3096609703072</v>
+        <v>189.3096609703071</v>
       </c>
       <c r="L38" t="n">
         <v>287.3493926451864</v>
       </c>
       <c r="M38" t="n">
-        <v>335.0975190102391</v>
+        <v>335.097519010239</v>
       </c>
       <c r="N38" t="n">
-        <v>324.8458330678891</v>
+        <v>324.845833067889</v>
       </c>
       <c r="O38" t="n">
-        <v>260.1484143168381</v>
+        <v>260.148414316838</v>
       </c>
       <c r="P38" t="n">
-        <v>184.7187405822264</v>
+        <v>184.7187405822263</v>
       </c>
       <c r="Q38" t="n">
-        <v>60.75708983734469</v>
+        <v>60.75708983734463</v>
       </c>
       <c r="R38" t="n">
-        <v>6.175778909451912</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.76600421588553</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>34.00847495575649</v>
+        <v>34.00847495575646</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37631,13 +37631,13 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N39" t="n">
-        <v>434.1530315048096</v>
+        <v>434.1530315048097</v>
       </c>
       <c r="O39" t="n">
         <v>337.4227443375246</v>
       </c>
       <c r="P39" t="n">
-        <v>184.9776948987409</v>
+        <v>184.9776948987414</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>12.58771796578439</v>
+        <v>12.58771796578436</v>
       </c>
       <c r="L40" t="n">
-        <v>72.47523321319431</v>
+        <v>72.47523321319429</v>
       </c>
       <c r="M40" t="n">
-        <v>87.11487025423413</v>
+        <v>87.11487025423409</v>
       </c>
       <c r="N40" t="n">
-        <v>90.23666718406965</v>
+        <v>90.2366671840696</v>
       </c>
       <c r="O40" t="n">
-        <v>67.85665570015016</v>
+        <v>67.85665570015013</v>
       </c>
       <c r="P40" t="n">
-        <v>34.60603963756102</v>
+        <v>34.60603963756098</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8.917773012582664</v>
+        <v>8.917773012583464</v>
       </c>
       <c r="J41" t="n">
-        <v>43.90215583741314</v>
+        <v>43.90215583741309</v>
       </c>
       <c r="K41" t="n">
-        <v>189.3096609703072</v>
+        <v>189.3096609703071</v>
       </c>
       <c r="L41" t="n">
         <v>287.3493926451864</v>
       </c>
       <c r="M41" t="n">
-        <v>335.0975190102391</v>
+        <v>335.097519010239</v>
       </c>
       <c r="N41" t="n">
-        <v>324.8458330678891</v>
+        <v>324.845833067889</v>
       </c>
       <c r="O41" t="n">
-        <v>454.0491998070137</v>
+        <v>260.148414316838</v>
       </c>
       <c r="P41" t="n">
-        <v>284.8344750922966</v>
+        <v>284.8344750922842</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.75708983734469</v>
+        <v>254.6578753275211</v>
       </c>
       <c r="R41" t="n">
-        <v>85.0305028729623</v>
+        <v>85.0305028729631</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>34.00847495575649</v>
+        <v>34.00847495575646</v>
       </c>
       <c r="K42" t="n">
-        <v>186.0103582999683</v>
+        <v>186.0103582999682</v>
       </c>
       <c r="L42" t="n">
         <v>311.5781312960625</v>
@@ -37868,13 +37868,13 @@
         <v>416.9305123998874</v>
       </c>
       <c r="N42" t="n">
-        <v>443.5196971985946</v>
+        <v>416.0674044055499</v>
       </c>
       <c r="O42" t="n">
         <v>337.4227443375246</v>
       </c>
       <c r="P42" t="n">
-        <v>226.7667415163988</v>
+        <v>254.2190343094329</v>
       </c>
       <c r="Q42" t="n">
         <v>117.8569421490421</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6275257828653609</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37938,28 +37938,28 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>12.58771796578439</v>
+        <v>12.58771796578436</v>
       </c>
       <c r="L43" t="n">
-        <v>72.47523321319431</v>
+        <v>72.47523321319429</v>
       </c>
       <c r="M43" t="n">
-        <v>87.11487025423413</v>
+        <v>87.11487025423409</v>
       </c>
       <c r="N43" t="n">
-        <v>90.23666718406965</v>
+        <v>90.2366671840696</v>
       </c>
       <c r="O43" t="n">
-        <v>67.85665570015016</v>
+        <v>67.85665570015013</v>
       </c>
       <c r="P43" t="n">
-        <v>34.60603963756102</v>
+        <v>34.60603963756098</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>0.6275257828596263</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.917773012582636</v>
+        <v>8.917773012583314</v>
       </c>
       <c r="J44" t="n">
-        <v>43.90215583741314</v>
+        <v>43.90215583741307</v>
       </c>
       <c r="K44" t="n">
-        <v>289.425395480378</v>
+        <v>189.3096609703071</v>
       </c>
       <c r="L44" t="n">
-        <v>287.3493926451864</v>
+        <v>287.3493926451863</v>
       </c>
       <c r="M44" t="n">
-        <v>335.0975190102391</v>
+        <v>335.097519010239</v>
       </c>
       <c r="N44" t="n">
-        <v>324.8458330678891</v>
+        <v>324.8458330678889</v>
       </c>
       <c r="O44" t="n">
-        <v>260.1484143168381</v>
+        <v>360.2641488268968</v>
       </c>
       <c r="P44" t="n">
-        <v>184.7187405822264</v>
+        <v>184.7187405822262</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.6578753275203</v>
+        <v>254.6578753275209</v>
       </c>
       <c r="R44" t="n">
-        <v>85.03050287296227</v>
+        <v>85.03050287296293</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>34.00847495575649</v>
+        <v>34.00847495575645</v>
       </c>
       <c r="K45" t="n">
-        <v>186.0103582999683</v>
+        <v>186.0103582999682</v>
       </c>
       <c r="L45" t="n">
-        <v>311.5781312960625</v>
+        <v>284.1258385030185</v>
       </c>
       <c r="M45" t="n">
-        <v>416.9305123998874</v>
+        <v>416.9305123998873</v>
       </c>
       <c r="N45" t="n">
-        <v>443.5196971985946</v>
+        <v>443.5196971985945</v>
       </c>
       <c r="O45" t="n">
-        <v>337.4227443375246</v>
+        <v>337.4227443375245</v>
       </c>
       <c r="P45" t="n">
         <v>254.2190343094329</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.40464935600806</v>
+        <v>117.8569421490421</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38154,13 +38154,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.6275257828607962</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6275257828654758</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>12.58771796578439</v>
+        <v>12.58771796578435</v>
       </c>
       <c r="L46" t="n">
-        <v>72.47523321319431</v>
+        <v>72.47523321319426</v>
       </c>
       <c r="M46" t="n">
-        <v>87.11487025423413</v>
+        <v>87.11487025423408</v>
       </c>
       <c r="N46" t="n">
-        <v>90.23666718406965</v>
+        <v>90.23666718406959</v>
       </c>
       <c r="O46" t="n">
-        <v>67.85665570015016</v>
+        <v>67.8566557001501</v>
       </c>
       <c r="P46" t="n">
-        <v>34.60603963756102</v>
+        <v>34.60603963756098</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
